--- a/Capstone_regPrecise/nodes_G59.xlsx
+++ b/Capstone_regPrecise/nodes_G59.xlsx
@@ -12,1875 +12,1866 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="623">
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>10963</t>
-  </si>
-  <si>
-    <t>7678</t>
-  </si>
-  <si>
-    <t>7656</t>
-  </si>
-  <si>
-    <t>7645</t>
-  </si>
-  <si>
-    <t>7634</t>
-  </si>
-  <si>
-    <t>7623</t>
-  </si>
-  <si>
-    <t>7601</t>
-  </si>
-  <si>
-    <t>7590</t>
-  </si>
-  <si>
-    <t>7579</t>
-  </si>
-  <si>
-    <t>7546</t>
-  </si>
-  <si>
-    <t>7535</t>
-  </si>
-  <si>
-    <t>7524</t>
-  </si>
-  <si>
-    <t>7480</t>
-  </si>
-  <si>
-    <t>7469</t>
-  </si>
-  <si>
-    <t>7447</t>
-  </si>
-  <si>
-    <t>7436</t>
-  </si>
-  <si>
-    <t>7425</t>
-  </si>
-  <si>
-    <t>13149</t>
-  </si>
-  <si>
-    <t>9944</t>
-  </si>
-  <si>
-    <t>12220</t>
-  </si>
-  <si>
-    <t>28442</t>
-  </si>
-  <si>
-    <t>10779</t>
-  </si>
-  <si>
-    <t>10790</t>
-  </si>
-  <si>
-    <t>10801</t>
-  </si>
-  <si>
-    <t>10812</t>
-  </si>
-  <si>
-    <t>10834</t>
-  </si>
-  <si>
-    <t>12871</t>
-  </si>
-  <si>
-    <t>10974</t>
-  </si>
-  <si>
-    <t>10985</t>
-  </si>
-  <si>
-    <t>11080</t>
-  </si>
-  <si>
-    <t>11091</t>
-  </si>
-  <si>
-    <t>11124</t>
-  </si>
-  <si>
-    <t>11198</t>
-  </si>
-  <si>
-    <t>11209</t>
-  </si>
-  <si>
-    <t>11234</t>
-  </si>
-  <si>
-    <t>11245</t>
-  </si>
-  <si>
-    <t>11256</t>
-  </si>
-  <si>
-    <t>11661</t>
-  </si>
-  <si>
-    <t>11478</t>
-  </si>
-  <si>
-    <t>12308</t>
-  </si>
-  <si>
-    <t>11794</t>
-  </si>
-  <si>
-    <t>11977</t>
-  </si>
-  <si>
-    <t>12860</t>
-  </si>
-  <si>
-    <t>12010</t>
-  </si>
-  <si>
-    <t>12032</t>
-  </si>
-  <si>
-    <t>12043</t>
-  </si>
-  <si>
-    <t>12065</t>
-  </si>
-  <si>
-    <t>12297</t>
-  </si>
-  <si>
-    <t>12350</t>
-  </si>
-  <si>
-    <t>12403</t>
-  </si>
-  <si>
-    <t>12480</t>
-  </si>
-  <si>
-    <t>12905</t>
-  </si>
-  <si>
-    <t>12678</t>
-  </si>
-  <si>
-    <t>12692</t>
-  </si>
-  <si>
-    <t>12916</t>
-  </si>
-  <si>
-    <t>12723</t>
-  </si>
-  <si>
-    <t>12734</t>
-  </si>
-  <si>
-    <t>12745</t>
-  </si>
-  <si>
-    <t>13171</t>
-  </si>
-  <si>
-    <t>13247</t>
-  </si>
-  <si>
-    <t>13280</t>
-  </si>
-  <si>
-    <t>13291</t>
-  </si>
-  <si>
-    <t>13343</t>
-  </si>
-  <si>
-    <t>38953</t>
-  </si>
-  <si>
-    <t>41386</t>
-  </si>
-  <si>
-    <t>32030</t>
-  </si>
-  <si>
-    <t>38862</t>
-  </si>
-  <si>
-    <t>41460</t>
-  </si>
-  <si>
-    <t>45191</t>
-  </si>
-  <si>
-    <t>51913</t>
-  </si>
-  <si>
-    <t>51928</t>
-  </si>
-  <si>
-    <t>52250</t>
-  </si>
-  <si>
-    <t>52278</t>
-  </si>
-  <si>
-    <t>53570</t>
-  </si>
-  <si>
-    <t>57010</t>
-  </si>
-  <si>
-    <t>57389</t>
-  </si>
-  <si>
-    <t>57021</t>
-  </si>
-  <si>
-    <t>57259</t>
-  </si>
-  <si>
-    <t>61291</t>
-  </si>
-  <si>
-    <t>61326</t>
-  </si>
-  <si>
-    <t>64066</t>
-  </si>
-  <si>
-    <t>64067</t>
-  </si>
-  <si>
-    <t>64068</t>
-  </si>
-  <si>
-    <t>64069</t>
-  </si>
-  <si>
-    <t>64070</t>
-  </si>
-  <si>
-    <t>63190</t>
-  </si>
-  <si>
-    <t>63191</t>
-  </si>
-  <si>
-    <t>62669</t>
-  </si>
-  <si>
-    <t>65706</t>
-  </si>
-  <si>
-    <t>65707</t>
-  </si>
-  <si>
-    <t>65708</t>
-  </si>
-  <si>
-    <t>65709</t>
-  </si>
-  <si>
-    <t>65710</t>
-  </si>
-  <si>
-    <t>65711</t>
-  </si>
-  <si>
-    <t>63975</t>
-  </si>
-  <si>
-    <t>63976</t>
-  </si>
-  <si>
-    <t>63977</t>
-  </si>
-  <si>
-    <t>64371</t>
-  </si>
-  <si>
-    <t>62947</t>
-  </si>
-  <si>
-    <t>62948</t>
-  </si>
-  <si>
-    <t>62949</t>
-  </si>
-  <si>
-    <t>62950</t>
-  </si>
-  <si>
-    <t>63579</t>
-  </si>
-  <si>
-    <t>64701</t>
-  </si>
-  <si>
-    <t>65339</t>
-  </si>
-  <si>
-    <t>66259</t>
-  </si>
-  <si>
-    <t>66260</t>
-  </si>
-  <si>
-    <t>66261</t>
-  </si>
-  <si>
-    <t>66262</t>
-  </si>
-  <si>
-    <t>66263</t>
-  </si>
-  <si>
-    <t>66264</t>
-  </si>
-  <si>
-    <t>66265</t>
-  </si>
-  <si>
-    <t>65338</t>
-  </si>
-  <si>
-    <t>65337</t>
-  </si>
-  <si>
-    <t>65336</t>
-  </si>
-  <si>
-    <t>64797</t>
-  </si>
-  <si>
-    <t>63453</t>
-  </si>
-  <si>
-    <t>63454</t>
-  </si>
-  <si>
-    <t>66518</t>
-  </si>
-  <si>
-    <t>66517</t>
-  </si>
-  <si>
-    <t>65697</t>
-  </si>
-  <si>
-    <t>63325</t>
-  </si>
-  <si>
-    <t>63532</t>
-  </si>
-  <si>
-    <t>65629</t>
-  </si>
-  <si>
-    <t>65628</t>
-  </si>
-  <si>
-    <t>65627</t>
-  </si>
-  <si>
-    <t>65626</t>
-  </si>
-  <si>
-    <t>65625</t>
-  </si>
-  <si>
-    <t>65624</t>
-  </si>
-  <si>
-    <t>64108</t>
-  </si>
-  <si>
-    <t>64532</t>
-  </si>
-  <si>
-    <t>63798</t>
-  </si>
-  <si>
-    <t>63797</t>
-  </si>
-  <si>
-    <t>63799</t>
-  </si>
-  <si>
-    <t>63800</t>
-  </si>
-  <si>
-    <t>63801</t>
-  </si>
-  <si>
-    <t>65835</t>
-  </si>
-  <si>
-    <t>66435</t>
-  </si>
-  <si>
-    <t>66434</t>
-  </si>
-  <si>
-    <t>66433</t>
-  </si>
-  <si>
-    <t>66432</t>
-  </si>
-  <si>
-    <t>63970</t>
-  </si>
-  <si>
-    <t>63971</t>
-  </si>
-  <si>
-    <t>63097</t>
-  </si>
-  <si>
-    <t>65322</t>
-  </si>
-  <si>
-    <t>64935</t>
-  </si>
-  <si>
-    <t>64934</t>
-  </si>
-  <si>
-    <t>64933</t>
-  </si>
-  <si>
-    <t>65544</t>
-  </si>
-  <si>
-    <t>66176</t>
-  </si>
-  <si>
-    <t>66175</t>
-  </si>
-  <si>
-    <t>64964</t>
-  </si>
-  <si>
-    <t>64721</t>
-  </si>
-  <si>
-    <t>64720</t>
-  </si>
-  <si>
-    <t>64937</t>
-  </si>
-  <si>
-    <t>64083</t>
-  </si>
-  <si>
-    <t>63229</t>
-  </si>
-  <si>
-    <t>63230</t>
-  </si>
-  <si>
-    <t>63231</t>
-  </si>
-  <si>
-    <t>63412</t>
-  </si>
-  <si>
-    <t>64600</t>
-  </si>
-  <si>
-    <t>64601</t>
-  </si>
-  <si>
-    <t>64602</t>
-  </si>
-  <si>
-    <t>64603</t>
-  </si>
-  <si>
-    <t>64604</t>
-  </si>
-  <si>
-    <t>63588</t>
-  </si>
-  <si>
-    <t>63925</t>
-  </si>
-  <si>
-    <t>63926</t>
-  </si>
-  <si>
-    <t>63927</t>
-  </si>
-  <si>
-    <t>63142</t>
-  </si>
-  <si>
-    <t>63143</t>
-  </si>
-  <si>
-    <t>62884</t>
-  </si>
-  <si>
-    <t>63606</t>
-  </si>
-  <si>
-    <t>63607</t>
-  </si>
-  <si>
-    <t>63608</t>
-  </si>
-  <si>
-    <t>63609</t>
-  </si>
-  <si>
-    <t>63148</t>
-  </si>
-  <si>
-    <t>63149</t>
-  </si>
-  <si>
-    <t>63150</t>
-  </si>
-  <si>
-    <t>63151</t>
-  </si>
-  <si>
-    <t>63152</t>
-  </si>
-  <si>
-    <t>63193</t>
-  </si>
-  <si>
-    <t>63194</t>
-  </si>
-  <si>
-    <t>63195</t>
-  </si>
-  <si>
-    <t>63196</t>
-  </si>
-  <si>
-    <t>63093</t>
-  </si>
-  <si>
-    <t>63094</t>
-  </si>
-  <si>
-    <t>63095</t>
-  </si>
-  <si>
-    <t>63664</t>
-  </si>
-  <si>
-    <t>63663</t>
-  </si>
-  <si>
-    <t>63662</t>
-  </si>
-  <si>
-    <t>65205</t>
-  </si>
-  <si>
-    <t>65204</t>
-  </si>
-  <si>
-    <t>65203</t>
-  </si>
-  <si>
-    <t>65202</t>
-  </si>
-  <si>
-    <t>65201</t>
-  </si>
-  <si>
-    <t>65200</t>
-  </si>
-  <si>
-    <t>65199</t>
-  </si>
-  <si>
-    <t>66464</t>
-  </si>
-  <si>
-    <t>66472</t>
-  </si>
-  <si>
-    <t>62810</t>
-  </si>
-  <si>
-    <t>63321</t>
-  </si>
-  <si>
-    <t>63320</t>
-  </si>
-  <si>
-    <t>62809</t>
-  </si>
-  <si>
-    <t>66142</t>
-  </si>
-  <si>
-    <t>66141</t>
-  </si>
-  <si>
-    <t>66140</t>
-  </si>
-  <si>
-    <t>66139</t>
-  </si>
-  <si>
-    <t>66138</t>
-  </si>
-  <si>
-    <t>66137</t>
-  </si>
-  <si>
-    <t>65939</t>
-  </si>
-  <si>
-    <t>66488</t>
-  </si>
-  <si>
-    <t>66489</t>
-  </si>
-  <si>
-    <t>66490</t>
-  </si>
-  <si>
-    <t>64329</t>
-  </si>
-  <si>
-    <t>63364</t>
-  </si>
-  <si>
-    <t>63363</t>
-  </si>
-  <si>
-    <t>64042</t>
-  </si>
-  <si>
-    <t>64043</t>
-  </si>
-  <si>
-    <t>64044</t>
-  </si>
-  <si>
-    <t>65477</t>
-  </si>
-  <si>
-    <t>65476</t>
-  </si>
-  <si>
-    <t>65475</t>
-  </si>
-  <si>
-    <t>65481</t>
-  </si>
-  <si>
-    <t>65480</t>
-  </si>
-  <si>
-    <t>65479</t>
-  </si>
-  <si>
-    <t>65478</t>
-  </si>
-  <si>
-    <t>65768</t>
-  </si>
-  <si>
-    <t>65767</t>
-  </si>
-  <si>
-    <t>64712</t>
-  </si>
-  <si>
-    <t>64711</t>
-  </si>
-  <si>
-    <t>64095</t>
-  </si>
-  <si>
-    <t>64094</t>
-  </si>
-  <si>
-    <t>66346</t>
-  </si>
-  <si>
-    <t>64051</t>
-  </si>
-  <si>
-    <t>62643</t>
-  </si>
-  <si>
-    <t>62644</t>
-  </si>
-  <si>
-    <t>63204</t>
-  </si>
-  <si>
-    <t>63205</t>
-  </si>
-  <si>
-    <t>63206</t>
-  </si>
-  <si>
-    <t>63207</t>
-  </si>
-  <si>
-    <t>63208</t>
-  </si>
-  <si>
-    <t>63209</t>
-  </si>
-  <si>
-    <t>63210</t>
-  </si>
-  <si>
-    <t>63211</t>
-  </si>
-  <si>
-    <t>63212</t>
-  </si>
-  <si>
-    <t>63213</t>
-  </si>
-  <si>
-    <t>63214</t>
-  </si>
-  <si>
-    <t>63215</t>
-  </si>
-  <si>
-    <t>63189</t>
-  </si>
-  <si>
-    <t>66609</t>
-  </si>
-  <si>
-    <t>65366</t>
-  </si>
-  <si>
-    <t>65365</t>
-  </si>
-  <si>
-    <t>65397</t>
-  </si>
-  <si>
-    <t>65396</t>
-  </si>
-  <si>
-    <t>65395</t>
-  </si>
-  <si>
-    <t>63013</t>
-  </si>
-  <si>
-    <t>63012</t>
-  </si>
-  <si>
-    <t>64006</t>
-  </si>
-  <si>
-    <t>65400</t>
-  </si>
-  <si>
-    <t>64407</t>
-  </si>
-  <si>
-    <t>63062</t>
-  </si>
-  <si>
-    <t>63063</t>
-  </si>
-  <si>
-    <t>64901</t>
-  </si>
-  <si>
-    <t>64900</t>
-  </si>
-  <si>
-    <t>64899</t>
-  </si>
-  <si>
-    <t>64898</t>
-  </si>
-  <si>
-    <t>64897</t>
-  </si>
-  <si>
-    <t>64896</t>
-  </si>
-  <si>
-    <t>64895</t>
-  </si>
-  <si>
-    <t>64893</t>
-  </si>
-  <si>
-    <t>66405</t>
-  </si>
-  <si>
-    <t>66406</t>
-  </si>
-  <si>
-    <t>66023</t>
-  </si>
-  <si>
-    <t>66022</t>
-  </si>
-  <si>
-    <t>66021</t>
-  </si>
-  <si>
-    <t>63282</t>
-  </si>
-  <si>
-    <t>63283</t>
-  </si>
-  <si>
-    <t>63284</t>
-  </si>
-  <si>
-    <t>63285</t>
-  </si>
-  <si>
-    <t>63286</t>
-  </si>
-  <si>
-    <t>63287</t>
-  </si>
-  <si>
-    <t>63288</t>
-  </si>
-  <si>
-    <t>63698</t>
-  </si>
-  <si>
-    <t>63699</t>
-  </si>
-  <si>
-    <t>63700</t>
-  </si>
-  <si>
-    <t>63701</t>
-  </si>
-  <si>
-    <t>63702</t>
-  </si>
-  <si>
-    <t>66420</t>
-  </si>
-  <si>
-    <t>66419</t>
-  </si>
-  <si>
-    <t>63721</t>
-  </si>
-  <si>
-    <t>65401</t>
-  </si>
-  <si>
-    <t>66507</t>
-  </si>
-  <si>
-    <t>63326</t>
-  </si>
-  <si>
-    <t>63712</t>
-  </si>
-  <si>
-    <t>63713</t>
-  </si>
-  <si>
-    <t>63714</t>
-  </si>
-  <si>
-    <t>63715</t>
-  </si>
-  <si>
-    <t>63716</t>
-  </si>
-  <si>
-    <t>63717</t>
-  </si>
-  <si>
-    <t>63718</t>
-  </si>
-  <si>
-    <t>63711</t>
-  </si>
-  <si>
-    <t>63645</t>
-  </si>
-  <si>
-    <t>63646</t>
-  </si>
-  <si>
-    <t>63647</t>
-  </si>
-  <si>
-    <t>63648</t>
-  </si>
-  <si>
-    <t>63649</t>
-  </si>
-  <si>
-    <t>66029</t>
-  </si>
-  <si>
-    <t>66028</t>
-  </si>
-  <si>
-    <t>66027</t>
-  </si>
-  <si>
-    <t>66144</t>
-  </si>
-  <si>
-    <t>64412</t>
-  </si>
-  <si>
-    <t>64413</t>
-  </si>
-  <si>
-    <t>64414</t>
-  </si>
-  <si>
-    <t>64415</t>
-  </si>
-  <si>
-    <t>64416</t>
-  </si>
-  <si>
-    <t>65815</t>
-  </si>
-  <si>
-    <t>65813</t>
-  </si>
-  <si>
-    <t>65684</t>
-  </si>
-  <si>
-    <t>63673</t>
-  </si>
-  <si>
-    <t>63674</t>
-  </si>
-  <si>
-    <t>63486</t>
-  </si>
-  <si>
-    <t>63483</t>
-  </si>
-  <si>
-    <t>63484</t>
-  </si>
-  <si>
-    <t>64459</t>
-  </si>
-  <si>
-    <t>65298</t>
-  </si>
-  <si>
-    <t>65299</t>
-  </si>
-  <si>
-    <t>66502</t>
-  </si>
-  <si>
-    <t>66501</t>
-  </si>
-  <si>
-    <t>66500</t>
-  </si>
-  <si>
-    <t>66499</t>
-  </si>
-  <si>
-    <t>66498</t>
-  </si>
-  <si>
-    <t>66382</t>
-  </si>
-  <si>
-    <t>66381</t>
-  </si>
-  <si>
-    <t>66380</t>
-  </si>
-  <si>
-    <t>64747</t>
-  </si>
-  <si>
-    <t>62877</t>
-  </si>
-  <si>
-    <t>66404</t>
-  </si>
-  <si>
-    <t>63064</t>
-  </si>
-  <si>
-    <t>64437</t>
-  </si>
-  <si>
-    <t>64438</t>
-  </si>
-  <si>
-    <t>64439</t>
-  </si>
-  <si>
-    <t>62774</t>
-  </si>
-  <si>
-    <t>62773</t>
-  </si>
-  <si>
-    <t>62772</t>
-  </si>
-  <si>
-    <t>62771</t>
-  </si>
-  <si>
-    <t>64787</t>
-  </si>
-  <si>
-    <t>64786</t>
-  </si>
-  <si>
-    <t>64808</t>
-  </si>
-  <si>
-    <t>64807</t>
-  </si>
-  <si>
-    <t>64806</t>
-  </si>
-  <si>
-    <t>64805</t>
-  </si>
-  <si>
-    <t>64804</t>
-  </si>
-  <si>
-    <t>64492</t>
-  </si>
-  <si>
-    <t>64493</t>
-  </si>
-  <si>
-    <t>64494</t>
-  </si>
-  <si>
-    <t>66426</t>
-  </si>
-  <si>
-    <t>66427</t>
-  </si>
-  <si>
-    <t>66428</t>
-  </si>
-  <si>
-    <t>64599</t>
-  </si>
-  <si>
-    <t>62833</t>
-  </si>
-  <si>
-    <t>62834</t>
-  </si>
-  <si>
-    <t>62835</t>
-  </si>
-  <si>
-    <t>62836</t>
-  </si>
-  <si>
-    <t>62837</t>
-  </si>
-  <si>
-    <t>62838</t>
-  </si>
-  <si>
-    <t>62839</t>
-  </si>
-  <si>
-    <t>64075</t>
-  </si>
-  <si>
-    <t>62832</t>
-  </si>
-  <si>
-    <t>62831</t>
-  </si>
-  <si>
-    <t>62830</t>
-  </si>
-  <si>
-    <t>62829</t>
-  </si>
-  <si>
-    <t>62828</t>
-  </si>
-  <si>
-    <t>63082</t>
-  </si>
-  <si>
-    <t>63083</t>
-  </si>
-  <si>
-    <t>65391</t>
-  </si>
-  <si>
-    <t>66308</t>
-  </si>
-  <si>
-    <t>66309</t>
-  </si>
-  <si>
-    <t>66310</t>
-  </si>
-  <si>
-    <t>66311</t>
-  </si>
-  <si>
-    <t>66312</t>
-  </si>
-  <si>
-    <t>66313</t>
-  </si>
-  <si>
-    <t>64353</t>
-  </si>
-  <si>
-    <t>64890</t>
-  </si>
-  <si>
-    <t>64889</t>
-  </si>
-  <si>
-    <t>64941</t>
-  </si>
-  <si>
-    <t>66401</t>
-  </si>
-  <si>
-    <t>65642</t>
-  </si>
-  <si>
-    <t>63002</t>
-  </si>
-  <si>
-    <t>63001</t>
-  </si>
-  <si>
-    <t>63003</t>
-  </si>
-  <si>
-    <t>66415</t>
-  </si>
-  <si>
-    <t>66414</t>
-  </si>
-  <si>
-    <t>66413</t>
-  </si>
-  <si>
-    <t>66222</t>
-  </si>
-  <si>
-    <t>66221</t>
-  </si>
-  <si>
-    <t>66220</t>
-  </si>
-  <si>
-    <t>66219</t>
-  </si>
-  <si>
-    <t>66218</t>
-  </si>
-  <si>
-    <t>66217</t>
-  </si>
-  <si>
-    <t>63339</t>
-  </si>
-  <si>
-    <t>63340</t>
-  </si>
-  <si>
-    <t>63341</t>
-  </si>
-  <si>
-    <t>63342</t>
-  </si>
-  <si>
-    <t>63343</t>
-  </si>
-  <si>
-    <t>63327</t>
-  </si>
-  <si>
-    <t>63338</t>
-  </si>
-  <si>
-    <t>63949</t>
-  </si>
-  <si>
-    <t>63950</t>
-  </si>
-  <si>
-    <t>63654</t>
-  </si>
-  <si>
-    <t>65987</t>
-  </si>
-  <si>
-    <t>65986</t>
-  </si>
-  <si>
-    <t>65985</t>
-  </si>
-  <si>
-    <t>65989</t>
-  </si>
-  <si>
-    <t>66448</t>
-  </si>
-  <si>
-    <t>66482</t>
-  </si>
-  <si>
-    <t>66481</t>
-  </si>
-  <si>
-    <t>64803</t>
-  </si>
-  <si>
-    <t>64802</t>
-  </si>
-  <si>
-    <t>64801</t>
-  </si>
-  <si>
-    <t>64800</t>
-  </si>
-  <si>
-    <t>63639</t>
-  </si>
-  <si>
-    <t>66165</t>
-  </si>
-  <si>
-    <t>66164</t>
-  </si>
-  <si>
-    <t>66163</t>
-  </si>
-  <si>
-    <t>66162</t>
-  </si>
-  <si>
-    <t>66161</t>
-  </si>
-  <si>
-    <t>66160</t>
-  </si>
-  <si>
-    <t>66159</t>
-  </si>
-  <si>
-    <t>66158</t>
-  </si>
-  <si>
-    <t>65940</t>
-  </si>
-  <si>
-    <t>65576</t>
-  </si>
-  <si>
-    <t>65577</t>
-  </si>
-  <si>
-    <t>65581</t>
-  </si>
-  <si>
-    <t>65580</t>
-  </si>
-  <si>
-    <t>65579</t>
-  </si>
-  <si>
-    <t>63526</t>
-  </si>
-  <si>
-    <t>63527</t>
-  </si>
-  <si>
-    <t>66525</t>
-  </si>
-  <si>
-    <t>66524</t>
-  </si>
-  <si>
-    <t>66523</t>
-  </si>
-  <si>
-    <t>66522</t>
-  </si>
-  <si>
-    <t>66521</t>
-  </si>
-  <si>
-    <t>64403</t>
-  </si>
-  <si>
-    <t>64404</t>
-  </si>
-  <si>
-    <t>64405</t>
-  </si>
-  <si>
-    <t>64406</t>
-  </si>
-  <si>
-    <t>65346</t>
-  </si>
-  <si>
-    <t>65345</t>
-  </si>
-  <si>
-    <t>65344</t>
-  </si>
-  <si>
-    <t>65343</t>
-  </si>
-  <si>
-    <t>65342</t>
-  </si>
-  <si>
-    <t>66497</t>
-  </si>
-  <si>
-    <t>65730</t>
-  </si>
-  <si>
-    <t>65883</t>
-  </si>
-  <si>
-    <t>66069</t>
-  </si>
-  <si>
-    <t>66068</t>
-  </si>
-  <si>
-    <t>66067</t>
-  </si>
-  <si>
-    <t>66383</t>
-  </si>
-  <si>
-    <t>66379</t>
-  </si>
-  <si>
-    <t>65683</t>
-  </si>
-  <si>
-    <t>65682</t>
-  </si>
-  <si>
-    <t>65681</t>
-  </si>
-  <si>
-    <t>65680</t>
-  </si>
-  <si>
-    <t>64725</t>
-  </si>
-  <si>
-    <t>65965</t>
-  </si>
-  <si>
-    <t>65966</t>
-  </si>
-  <si>
-    <t>65967</t>
-  </si>
-  <si>
-    <t>63065</t>
-  </si>
-  <si>
-    <t>63066</t>
-  </si>
-  <si>
-    <t>63067</t>
-  </si>
-  <si>
-    <t>63068</t>
-  </si>
-  <si>
-    <t>63069</t>
-  </si>
-  <si>
-    <t>63070</t>
-  </si>
-  <si>
-    <t>63071</t>
-  </si>
-  <si>
-    <t>63072</t>
-  </si>
-  <si>
-    <t>63073</t>
-  </si>
-  <si>
-    <t>63074</t>
-  </si>
-  <si>
-    <t>63075</t>
-  </si>
-  <si>
-    <t>65643</t>
-  </si>
-  <si>
-    <t>63497</t>
-  </si>
-  <si>
-    <t>62611</t>
-  </si>
-  <si>
-    <t>62610</t>
-  </si>
-  <si>
-    <t>62609</t>
-  </si>
-  <si>
-    <t>62608</t>
-  </si>
-  <si>
-    <t>63766</t>
-  </si>
-  <si>
-    <t>64408</t>
-  </si>
-  <si>
-    <t>65354</t>
-  </si>
-  <si>
-    <t>64955</t>
-  </si>
-  <si>
-    <t>64954</t>
-  </si>
-  <si>
-    <t>66020</t>
-  </si>
-  <si>
-    <t>62928</t>
-  </si>
-  <si>
-    <t>62929</t>
-  </si>
-  <si>
-    <t>62930</t>
-  </si>
-  <si>
-    <t>62931</t>
-  </si>
-  <si>
-    <t>62932</t>
-  </si>
-  <si>
-    <t>62933</t>
-  </si>
-  <si>
-    <t>62612</t>
-  </si>
-  <si>
-    <t>66400</t>
-  </si>
-  <si>
-    <t>64309</t>
-  </si>
-  <si>
-    <t>64310</t>
-  </si>
-  <si>
-    <t>66614</t>
-  </si>
-  <si>
-    <t>65782</t>
-  </si>
-  <si>
-    <t>63439</t>
-  </si>
-  <si>
-    <t>64683</t>
-  </si>
-  <si>
-    <t>64682</t>
-  </si>
-  <si>
-    <t>64442</t>
-  </si>
-  <si>
-    <t>64443</t>
-  </si>
-  <si>
-    <t>64452</t>
-  </si>
-  <si>
-    <t>64453</t>
-  </si>
-  <si>
-    <t>64454</t>
-  </si>
-  <si>
-    <t>64455</t>
-  </si>
-  <si>
-    <t>64456</t>
-  </si>
-  <si>
-    <t>63485</t>
-  </si>
-  <si>
-    <t>63642</t>
-  </si>
-  <si>
-    <t>66626</t>
-  </si>
-  <si>
-    <t>63000</t>
-  </si>
-  <si>
-    <t>62965</t>
-  </si>
-  <si>
-    <t>62964</t>
-  </si>
-  <si>
-    <t>62963</t>
-  </si>
-  <si>
-    <t>66076</t>
-  </si>
-  <si>
-    <t>64398</t>
-  </si>
-  <si>
-    <t>64399</t>
-  </si>
-  <si>
-    <t>66494</t>
-  </si>
-  <si>
-    <t>66495</t>
-  </si>
-  <si>
-    <t>65424</t>
-  </si>
-  <si>
-    <t>63345</t>
-  </si>
-  <si>
-    <t>65464</t>
-  </si>
-  <si>
-    <t>65463</t>
-  </si>
-  <si>
-    <t>65075</t>
-  </si>
-  <si>
-    <t>65074</t>
-  </si>
-  <si>
-    <t>65073</t>
-  </si>
-  <si>
-    <t>65072</t>
-  </si>
-  <si>
-    <t>65071</t>
-  </si>
-  <si>
-    <t>64892</t>
-  </si>
-  <si>
-    <t>64891</t>
-  </si>
-  <si>
-    <t>63407</t>
-  </si>
-  <si>
-    <t>63408</t>
-  </si>
-  <si>
-    <t>63409</t>
-  </si>
-  <si>
-    <t>62681</t>
-  </si>
-  <si>
-    <t>62682</t>
-  </si>
-  <si>
-    <t>62683</t>
-  </si>
-  <si>
-    <t>62684</t>
-  </si>
-  <si>
-    <t>62685</t>
-  </si>
-  <si>
-    <t>62686</t>
-  </si>
-  <si>
-    <t>66145</t>
-  </si>
-  <si>
-    <t>64760</t>
-  </si>
-  <si>
-    <t>65694</t>
-  </si>
-  <si>
-    <t>63138</t>
-  </si>
-  <si>
-    <t>63137</t>
-  </si>
-  <si>
-    <t>63428</t>
-  </si>
-  <si>
-    <t>63427</t>
-  </si>
-  <si>
-    <t>64131</t>
-  </si>
-  <si>
-    <t>64132</t>
-  </si>
-  <si>
-    <t>64133</t>
-  </si>
-  <si>
-    <t>64134</t>
-  </si>
-  <si>
-    <t>63318</t>
-  </si>
-  <si>
-    <t>63319</t>
-  </si>
-  <si>
-    <t>65885</t>
-  </si>
-  <si>
-    <t>65886</t>
-  </si>
-  <si>
-    <t>64817</t>
-  </si>
-  <si>
-    <t>62972</t>
-  </si>
-  <si>
-    <t>62973</t>
-  </si>
-  <si>
-    <t>65658</t>
-  </si>
-  <si>
-    <t>65657</t>
-  </si>
-  <si>
-    <t>65659</t>
-  </si>
-  <si>
-    <t>64726</t>
-  </si>
-  <si>
-    <t>64727</t>
-  </si>
-  <si>
-    <t>65908</t>
-  </si>
-  <si>
-    <t>63493</t>
-  </si>
-  <si>
-    <t>63492</t>
-  </si>
-  <si>
-    <t>63491</t>
-  </si>
-  <si>
-    <t>63490</t>
-  </si>
-  <si>
-    <t>63494</t>
-  </si>
-  <si>
-    <t>63644</t>
-  </si>
-  <si>
-    <t>63776</t>
-  </si>
-  <si>
-    <t>63777</t>
-  </si>
-  <si>
-    <t>63778</t>
-  </si>
-  <si>
-    <t>63779</t>
-  </si>
-  <si>
-    <t>63780</t>
-  </si>
-  <si>
-    <t>63781</t>
-  </si>
-  <si>
-    <t>63334</t>
-  </si>
-  <si>
-    <t>63333</t>
-  </si>
-  <si>
-    <t>66272</t>
-  </si>
-  <si>
-    <t>66271</t>
-  </si>
-  <si>
-    <t>66270</t>
-  </si>
-  <si>
-    <t>66269</t>
-  </si>
-  <si>
-    <t>66273</t>
-  </si>
-  <si>
-    <t>65508</t>
-  </si>
-  <si>
-    <t>65507</t>
-  </si>
-  <si>
-    <t>65506</t>
-  </si>
-  <si>
-    <t>65505</t>
-  </si>
-  <si>
-    <t>65504</t>
-  </si>
-  <si>
-    <t>62994</t>
-  </si>
-  <si>
-    <t>65484</t>
-  </si>
-  <si>
-    <t>63825</t>
-  </si>
-  <si>
-    <t>63826</t>
-  </si>
-  <si>
-    <t>63827</t>
-  </si>
-  <si>
-    <t>63828</t>
-  </si>
-  <si>
-    <t>63829</t>
-  </si>
-  <si>
-    <t>63830</t>
-  </si>
-  <si>
-    <t>63831</t>
-  </si>
-  <si>
-    <t>64097</t>
-  </si>
-  <si>
-    <t>63744</t>
-  </si>
-  <si>
-    <t>63745</t>
-  </si>
-  <si>
-    <t>63746</t>
-  </si>
-  <si>
-    <t>63747</t>
-  </si>
-  <si>
-    <t>63748</t>
-  </si>
-  <si>
-    <t>66073</t>
-  </si>
-  <si>
-    <t>66074</t>
-  </si>
-  <si>
-    <t>66075</t>
-  </si>
-  <si>
-    <t>63232</t>
-  </si>
-  <si>
-    <t>63233</t>
-  </si>
-  <si>
-    <t>63234</t>
-  </si>
-  <si>
-    <t>65228</t>
-  </si>
-  <si>
-    <t>65229</t>
-  </si>
-  <si>
-    <t>65230</t>
-  </si>
-  <si>
-    <t>65231</t>
-  </si>
-  <si>
-    <t>63158</t>
-  </si>
-  <si>
-    <t>62971</t>
-  </si>
-  <si>
-    <t>64520</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="620">
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>CymR</t>
+  </si>
+  <si>
+    <t>Zur</t>
+  </si>
+  <si>
+    <t>XylR</t>
+  </si>
+  <si>
+    <t>TreR</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>PerR</t>
+  </si>
+  <si>
+    <t>NiaR</t>
+  </si>
+  <si>
+    <t>MtlR</t>
+  </si>
+  <si>
+    <t>MntR</t>
+  </si>
+  <si>
+    <t>LexA</t>
+  </si>
+  <si>
+    <t>GanR</t>
+  </si>
+  <si>
+    <t>HrcA</t>
+  </si>
+  <si>
+    <t>Fur</t>
+  </si>
+  <si>
+    <t>Fnr</t>
+  </si>
+  <si>
+    <t>CggR</t>
+  </si>
+  <si>
+    <t>BirA</t>
+  </si>
+  <si>
+    <t>ArgR</t>
+  </si>
+  <si>
+    <t>SinR</t>
+  </si>
+  <si>
+    <t>PurR</t>
+  </si>
+  <si>
+    <t>YdfD/YisV</t>
+  </si>
+  <si>
+    <t>CcpA</t>
+  </si>
+  <si>
+    <t>GlnR</t>
+  </si>
+  <si>
+    <t>MsmR</t>
+  </si>
+  <si>
+    <t>NrdR</t>
+  </si>
+  <si>
+    <t>RbsR</t>
+  </si>
+  <si>
+    <t>TnrA</t>
+  </si>
+  <si>
+    <t>IolR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NsrR </t>
+  </si>
+  <si>
+    <t>HisR</t>
+  </si>
+  <si>
+    <t>ArsR</t>
+  </si>
+  <si>
+    <t>AseR</t>
+  </si>
+  <si>
+    <t>SdpR</t>
+  </si>
+  <si>
+    <t>RocR</t>
+  </si>
+  <si>
+    <t>AcoR</t>
+  </si>
+  <si>
+    <t>BkdR</t>
+  </si>
+  <si>
+    <t>GmuR</t>
+  </si>
+  <si>
+    <t>CcpN</t>
+  </si>
+  <si>
+    <t>FadR</t>
+  </si>
+  <si>
+    <t>CysL</t>
+  </si>
+  <si>
+    <t>RmgR</t>
+  </si>
+  <si>
+    <t>CodY</t>
+  </si>
+  <si>
+    <t>GltC2</t>
+  </si>
+  <si>
+    <t>AraR</t>
+  </si>
+  <si>
+    <t>BltR</t>
+  </si>
+  <si>
+    <t>NagR</t>
+  </si>
+  <si>
+    <t>LutR</t>
+  </si>
+  <si>
+    <t>YhcF</t>
+  </si>
+  <si>
+    <t>YdfL</t>
+  </si>
+  <si>
+    <t>KipR</t>
+  </si>
+  <si>
+    <t>BceR</t>
+  </si>
+  <si>
+    <t>FapR</t>
+  </si>
+  <si>
+    <t>IolR2</t>
+  </si>
+  <si>
+    <t>FruR</t>
+  </si>
+  <si>
+    <t>CtsR</t>
+  </si>
+  <si>
+    <t>CsoR</t>
+  </si>
+  <si>
+    <t>GlcR</t>
+  </si>
+  <si>
+    <t>CitT</t>
+  </si>
+  <si>
+    <t>RhaR</t>
+  </si>
+  <si>
+    <t>YybR/YdeP</t>
+  </si>
+  <si>
+    <t>YodB/CatR</t>
+  </si>
+  <si>
+    <t>YdfF</t>
+  </si>
+  <si>
+    <t>YybA</t>
+  </si>
+  <si>
+    <t>YhgD</t>
+  </si>
+  <si>
+    <t>MalR</t>
+  </si>
+  <si>
+    <t>GlnL</t>
+  </si>
+  <si>
+    <t>GamR</t>
+  </si>
+  <si>
+    <t>UxuR</t>
+  </si>
+  <si>
+    <t>LiaR</t>
+  </si>
+  <si>
+    <t>YvcP</t>
+  </si>
+  <si>
+    <t>KojR</t>
+  </si>
+  <si>
+    <t>MalR2</t>
+  </si>
+  <si>
+    <t>BH1250</t>
+  </si>
+  <si>
+    <t>ScrR2</t>
+  </si>
+  <si>
+    <t>BH1516</t>
+  </si>
+  <si>
+    <t>ABC3918</t>
+  </si>
+  <si>
+    <t>BC2903</t>
+  </si>
+  <si>
+    <t>BH0651</t>
+  </si>
+  <si>
+    <t>YhcF2</t>
+  </si>
+  <si>
+    <t>PdxW</t>
+  </si>
+  <si>
+    <t>BH1940</t>
+  </si>
+  <si>
+    <t>BH1485</t>
+  </si>
+  <si>
+    <t>cysH</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>cysP</t>
+  </si>
+  <si>
+    <t>cysC</t>
+  </si>
+  <si>
+    <t>cysJ</t>
+  </si>
+  <si>
+    <t>yvgQ</t>
+  </si>
+  <si>
+    <t>cysK</t>
+  </si>
+  <si>
+    <t>BH3125</t>
+  </si>
+  <si>
+    <t>BH3126</t>
+  </si>
+  <si>
+    <t>subI</t>
+  </si>
+  <si>
+    <t>cysT</t>
+  </si>
+  <si>
+    <t>cysW</t>
+  </si>
+  <si>
+    <t>cysA</t>
+  </si>
+  <si>
+    <t>znuC</t>
+  </si>
+  <si>
+    <t>znuB</t>
+  </si>
+  <si>
+    <t>zur</t>
+  </si>
+  <si>
+    <t>yciC</t>
+  </si>
+  <si>
+    <t>BH0366</t>
+  </si>
+  <si>
+    <t>BH0367</t>
+  </si>
+  <si>
+    <t>BH0368</t>
+  </si>
+  <si>
+    <t>sufE2</t>
+  </si>
+  <si>
+    <t>folE2</t>
+  </si>
+  <si>
+    <t>xynA</t>
+  </si>
+  <si>
+    <t>xylR</t>
+  </si>
+  <si>
+    <t>BH3678</t>
+  </si>
+  <si>
+    <t>BH3679</t>
+  </si>
+  <si>
+    <t>BH3680</t>
+  </si>
+  <si>
+    <t>BH3681</t>
+  </si>
+  <si>
+    <t>BH3682</t>
+  </si>
+  <si>
+    <t>xynB</t>
+  </si>
+  <si>
+    <t>BH3684</t>
+  </si>
+  <si>
+    <t>xylA</t>
+  </si>
+  <si>
+    <t>xylB</t>
+  </si>
+  <si>
+    <t>galM</t>
+  </si>
+  <si>
+    <t>treP</t>
+  </si>
+  <si>
+    <t>treA</t>
+  </si>
+  <si>
+    <t>treR</t>
+  </si>
+  <si>
+    <t>ldh</t>
+  </si>
+  <si>
+    <t>lctP</t>
+  </si>
+  <si>
+    <t>BH3116</t>
+  </si>
+  <si>
+    <t>zosA</t>
+  </si>
+  <si>
+    <t>perR</t>
+  </si>
+  <si>
+    <t>hemA</t>
+  </si>
+  <si>
+    <t>hemX</t>
+  </si>
+  <si>
+    <t>hemC</t>
+  </si>
+  <si>
+    <t>hemD</t>
+  </si>
+  <si>
+    <t>hemB</t>
+  </si>
+  <si>
+    <t>hemL</t>
+  </si>
+  <si>
+    <t>fur</t>
+  </si>
+  <si>
+    <t>yxbB</t>
+  </si>
+  <si>
+    <t>nifS</t>
+  </si>
+  <si>
+    <t>niaR</t>
+  </si>
+  <si>
+    <t>nadB</t>
+  </si>
+  <si>
+    <t>nadC</t>
+  </si>
+  <si>
+    <t>nadA</t>
+  </si>
+  <si>
+    <t>niaY</t>
+  </si>
+  <si>
+    <t>mtlA</t>
+  </si>
+  <si>
+    <t>mtlR</t>
+  </si>
+  <si>
+    <t>mtlF</t>
+  </si>
+  <si>
+    <t>mtlD</t>
+  </si>
+  <si>
+    <t>mntB</t>
+  </si>
+  <si>
+    <t>mntD</t>
+  </si>
+  <si>
+    <t>mntA</t>
+  </si>
+  <si>
+    <t>yqjW</t>
+  </si>
+  <si>
+    <t>yneB</t>
+  </si>
+  <si>
+    <t>ynzC</t>
+  </si>
+  <si>
+    <t>tkt</t>
+  </si>
+  <si>
+    <t>yhjD</t>
+  </si>
+  <si>
+    <t>uvrB</t>
+  </si>
+  <si>
+    <t>uvrA</t>
+  </si>
+  <si>
+    <t>recA</t>
+  </si>
+  <si>
+    <t>parE</t>
+  </si>
+  <si>
+    <t>parC</t>
+  </si>
+  <si>
+    <t>lexA</t>
+  </si>
+  <si>
+    <t>BH1502</t>
+  </si>
+  <si>
+    <t>pcrA</t>
+  </si>
+  <si>
+    <t>ligA</t>
+  </si>
+  <si>
+    <t>yerH</t>
+  </si>
+  <si>
+    <t>vpr</t>
+  </si>
+  <si>
+    <t>ganO</t>
+  </si>
+  <si>
+    <t>ganP</t>
+  </si>
+  <si>
+    <t>ganQ</t>
+  </si>
+  <si>
+    <t>ganA</t>
+  </si>
+  <si>
+    <t>ganB</t>
+  </si>
+  <si>
+    <t>htpG</t>
+  </si>
+  <si>
+    <t>hrcA</t>
+  </si>
+  <si>
+    <t>grpE</t>
+  </si>
+  <si>
+    <t>dnaK</t>
+  </si>
+  <si>
+    <t>groES</t>
+  </si>
+  <si>
+    <t>groEL</t>
+  </si>
+  <si>
+    <t>yfhC</t>
+  </si>
+  <si>
+    <t>yclN</t>
+  </si>
+  <si>
+    <t>yclO</t>
+  </si>
+  <si>
+    <t>yclP</t>
+  </si>
+  <si>
+    <t>yclQ</t>
+  </si>
+  <si>
+    <t>nikA</t>
+  </si>
+  <si>
+    <t>nikB</t>
+  </si>
+  <si>
+    <t>nikC</t>
+  </si>
+  <si>
+    <t>nikD</t>
+  </si>
+  <si>
+    <t>nikE</t>
+  </si>
+  <si>
+    <t>BH0612</t>
+  </si>
+  <si>
+    <t>nasD</t>
+  </si>
+  <si>
+    <t>nasE</t>
+  </si>
+  <si>
+    <t>nasC</t>
+  </si>
+  <si>
+    <t>BH0512</t>
+  </si>
+  <si>
+    <t>futB</t>
+  </si>
+  <si>
+    <t>fhuB</t>
+  </si>
+  <si>
+    <t>fhuG</t>
+  </si>
+  <si>
+    <t>fhuC</t>
+  </si>
+  <si>
+    <t>dat</t>
+  </si>
+  <si>
+    <t>ddc</t>
+  </si>
+  <si>
+    <t>rhbC</t>
+  </si>
+  <si>
+    <t>rhbD</t>
+  </si>
+  <si>
+    <t>iucD</t>
+  </si>
+  <si>
+    <t>BH2619</t>
+  </si>
+  <si>
+    <t>rhbF</t>
+  </si>
+  <si>
+    <t>yetG</t>
+  </si>
+  <si>
+    <t>ywjA</t>
+  </si>
+  <si>
+    <t>arfM</t>
+  </si>
+  <si>
+    <t>coxA</t>
+  </si>
+  <si>
+    <t>coxB</t>
+  </si>
+  <si>
+    <t>BH0228</t>
+  </si>
+  <si>
+    <t>cggR</t>
+  </si>
+  <si>
+    <t>gapA</t>
+  </si>
+  <si>
+    <t>pgk</t>
+  </si>
+  <si>
+    <t>tpiA</t>
+  </si>
+  <si>
+    <t>pgm</t>
+  </si>
+  <si>
+    <t>eno</t>
+  </si>
+  <si>
+    <t>bioY1</t>
+  </si>
+  <si>
+    <t>bioF</t>
+  </si>
+  <si>
+    <t>bioH</t>
+  </si>
+  <si>
+    <t>bioC</t>
+  </si>
+  <si>
+    <t>bioB</t>
+  </si>
+  <si>
+    <t>bioD</t>
+  </si>
+  <si>
+    <t>bioA</t>
+  </si>
+  <si>
+    <t>artP</t>
+  </si>
+  <si>
+    <t>artQ</t>
+  </si>
+  <si>
+    <t>artM</t>
+  </si>
+  <si>
+    <t>carA</t>
+  </si>
+  <si>
+    <t>carB</t>
+  </si>
+  <si>
+    <t>argF</t>
+  </si>
+  <si>
+    <t>argC</t>
+  </si>
+  <si>
+    <t>argJ</t>
+  </si>
+  <si>
+    <t>argB</t>
+  </si>
+  <si>
+    <t>argD</t>
+  </si>
+  <si>
+    <t>argG</t>
+  </si>
+  <si>
+    <t>argH</t>
+  </si>
+  <si>
+    <t>yqxM</t>
+  </si>
+  <si>
+    <t>sipW</t>
+  </si>
+  <si>
+    <t>xpt</t>
+  </si>
+  <si>
+    <t>BH1513</t>
+  </si>
+  <si>
+    <t>glyA</t>
+  </si>
+  <si>
+    <t>BH1470</t>
+  </si>
+  <si>
+    <t>purR</t>
+  </si>
+  <si>
+    <t>yabJ</t>
+  </si>
+  <si>
+    <t>purE</t>
+  </si>
+  <si>
+    <t>purK</t>
+  </si>
+  <si>
+    <t>purB</t>
+  </si>
+  <si>
+    <t>purC</t>
+  </si>
+  <si>
+    <t>purS</t>
+  </si>
+  <si>
+    <t>purQ</t>
+  </si>
+  <si>
+    <t>purL</t>
+  </si>
+  <si>
+    <t>purF</t>
+  </si>
+  <si>
+    <t>purM</t>
+  </si>
+  <si>
+    <t>purN</t>
+  </si>
+  <si>
+    <t>purH</t>
+  </si>
+  <si>
+    <t>purD</t>
+  </si>
+  <si>
+    <t>pbuG</t>
+  </si>
+  <si>
+    <t>purA</t>
+  </si>
+  <si>
+    <t>nusB</t>
+  </si>
+  <si>
+    <t>folD</t>
+  </si>
+  <si>
+    <t>BH2816</t>
+  </si>
+  <si>
+    <t>gcvPA</t>
+  </si>
+  <si>
+    <t>gcvPB</t>
+  </si>
+  <si>
+    <t>yisV</t>
+  </si>
+  <si>
+    <t>yisU</t>
+  </si>
+  <si>
+    <t>glcK</t>
+  </si>
+  <si>
+    <t>yqgW</t>
+  </si>
+  <si>
+    <t>acoR</t>
+  </si>
+  <si>
+    <t>ytcP</t>
+  </si>
+  <si>
+    <t>ytcQ</t>
+  </si>
+  <si>
+    <t>iolB</t>
+  </si>
+  <si>
+    <t>iolC</t>
+  </si>
+  <si>
+    <t>iolD</t>
+  </si>
+  <si>
+    <t>iolE</t>
+  </si>
+  <si>
+    <t>iolG</t>
+  </si>
+  <si>
+    <t>iolI</t>
+  </si>
+  <si>
+    <t>iolJ</t>
+  </si>
+  <si>
+    <t>iolA</t>
+  </si>
+  <si>
+    <t>cycB</t>
+  </si>
+  <si>
+    <t>BH3824</t>
+  </si>
+  <si>
+    <t>ywfI</t>
+  </si>
+  <si>
+    <t>araF</t>
+  </si>
+  <si>
+    <t>araG</t>
+  </si>
+  <si>
+    <t>araH</t>
+  </si>
+  <si>
+    <t>dctP</t>
+  </si>
+  <si>
+    <t>dctM</t>
+  </si>
+  <si>
+    <t>dctQ</t>
+  </si>
+  <si>
+    <t>BH0704</t>
+  </si>
+  <si>
+    <t>BH0705</t>
+  </si>
+  <si>
+    <t>uxuA</t>
+  </si>
+  <si>
+    <t>fabG</t>
+  </si>
+  <si>
+    <t>rhiL</t>
+  </si>
+  <si>
+    <t>rhiF</t>
+  </si>
+  <si>
+    <t>rhiG</t>
+  </si>
+  <si>
+    <t>rhiN1</t>
+  </si>
+  <si>
+    <t>yesV</t>
+  </si>
+  <si>
+    <t>citS</t>
+  </si>
+  <si>
+    <t>citT</t>
+  </si>
+  <si>
+    <t>msmX</t>
+  </si>
+  <si>
+    <t>yqgX</t>
+  </si>
+  <si>
+    <t>dagA</t>
+  </si>
+  <si>
+    <t>citMII</t>
+  </si>
+  <si>
+    <t>yngI</t>
+  </si>
+  <si>
+    <t>yngH</t>
+  </si>
+  <si>
+    <t>yngHB</t>
+  </si>
+  <si>
+    <t>yngG</t>
+  </si>
+  <si>
+    <t>yngF</t>
+  </si>
+  <si>
+    <t>yngE</t>
+  </si>
+  <si>
+    <t>acsA2</t>
+  </si>
+  <si>
+    <t>yngJ</t>
+  </si>
+  <si>
+    <t>BH1064</t>
+  </si>
+  <si>
+    <t>BH1065</t>
+  </si>
+  <si>
+    <t>BH1066</t>
+  </si>
+  <si>
+    <t>yjmF</t>
+  </si>
+  <si>
+    <t>rbsB</t>
+  </si>
+  <si>
+    <t>BH3447</t>
+  </si>
+  <si>
+    <t>BH3446</t>
+  </si>
+  <si>
+    <t>sigL</t>
+  </si>
+  <si>
+    <t>lutA</t>
+  </si>
+  <si>
+    <t>lutB</t>
+  </si>
+  <si>
+    <t>lutC</t>
+  </si>
+  <si>
+    <t>lutR</t>
+  </si>
+  <si>
+    <t>acsA</t>
+  </si>
+  <si>
+    <t>bglS</t>
+  </si>
+  <si>
+    <t>lcfA</t>
+  </si>
+  <si>
+    <t>glpF</t>
+  </si>
+  <si>
+    <t>glpK</t>
+  </si>
+  <si>
+    <t>araN</t>
+  </si>
+  <si>
+    <t>araP</t>
+  </si>
+  <si>
+    <t>araQ</t>
+  </si>
+  <si>
+    <t>abnB</t>
+  </si>
+  <si>
+    <t>glsA1</t>
+  </si>
+  <si>
+    <t>gudB</t>
+  </si>
+  <si>
+    <t>gmuB</t>
+  </si>
+  <si>
+    <t>gmuA</t>
+  </si>
+  <si>
+    <t>gmuC</t>
+  </si>
+  <si>
+    <t>gmuD</t>
+  </si>
+  <si>
+    <t>gmuR</t>
+  </si>
+  <si>
+    <t>mmgA</t>
+  </si>
+  <si>
+    <t>mmgB</t>
+  </si>
+  <si>
+    <t>mmgC</t>
+  </si>
+  <si>
+    <t>kduI</t>
+  </si>
+  <si>
+    <t>bglP1</t>
+  </si>
+  <si>
+    <t>pta</t>
+  </si>
+  <si>
+    <t>rmgR</t>
+  </si>
+  <si>
+    <t>sacP</t>
+  </si>
+  <si>
+    <t>sacK</t>
+  </si>
+  <si>
+    <t>sacA</t>
+  </si>
+  <si>
+    <t>BH0193</t>
+  </si>
+  <si>
+    <t>gatA</t>
+  </si>
+  <si>
+    <t>gatB</t>
+  </si>
+  <si>
+    <t>gatC</t>
+  </si>
+  <si>
+    <t>odhA</t>
+  </si>
+  <si>
+    <t>odhB</t>
+  </si>
+  <si>
+    <t>msmR</t>
+  </si>
+  <si>
+    <t>msmE</t>
+  </si>
+  <si>
+    <t>msmF</t>
+  </si>
+  <si>
+    <t>msmG</t>
+  </si>
+  <si>
+    <t>melA</t>
+  </si>
+  <si>
+    <t>lplB</t>
+  </si>
+  <si>
+    <t>lplC</t>
+  </si>
+  <si>
+    <t>ugpB</t>
+  </si>
+  <si>
+    <t>BH3845</t>
+  </si>
+  <si>
+    <t>BH3846</t>
+  </si>
+  <si>
+    <t>BH3847</t>
+  </si>
+  <si>
+    <t>ganR</t>
+  </si>
+  <si>
+    <t>ureA</t>
+  </si>
+  <si>
+    <t>ureB</t>
+  </si>
+  <si>
+    <t>ureC</t>
+  </si>
+  <si>
+    <t>ureE</t>
+  </si>
+  <si>
+    <t>ureF</t>
+  </si>
+  <si>
+    <t>ureG</t>
+  </si>
+  <si>
+    <t>ureD</t>
+  </si>
+  <si>
+    <t>tnrA</t>
+  </si>
+  <si>
+    <t>utrA</t>
+  </si>
+  <si>
+    <t>urtB</t>
+  </si>
+  <si>
+    <t>urtC</t>
+  </si>
+  <si>
+    <t>urtD</t>
+  </si>
+  <si>
+    <t>urtE</t>
+  </si>
+  <si>
+    <t>agaL</t>
+  </si>
+  <si>
+    <t>nrdA</t>
+  </si>
+  <si>
+    <t>nrdB</t>
+  </si>
+  <si>
+    <t>nrdZ</t>
+  </si>
+  <si>
+    <t>rbsR</t>
+  </si>
+  <si>
+    <t>rbsK</t>
+  </si>
+  <si>
+    <t>rbsD</t>
+  </si>
+  <si>
+    <t>rbsA</t>
+  </si>
+  <si>
+    <t>rbsC</t>
+  </si>
+  <si>
+    <t>alsT</t>
+  </si>
+  <si>
+    <t>pucH</t>
+  </si>
+  <si>
+    <t>arcD</t>
+  </si>
+  <si>
+    <t>glnA</t>
+  </si>
+  <si>
+    <t>gltT</t>
+  </si>
+  <si>
+    <t>ilvB</t>
+  </si>
+  <si>
+    <t>nagA</t>
+  </si>
+  <si>
+    <t>nagB</t>
+  </si>
+  <si>
+    <t>nagP</t>
+  </si>
+  <si>
+    <t>nrgA</t>
+  </si>
+  <si>
+    <t>BH3833</t>
+  </si>
+  <si>
+    <t>dpo3</t>
+  </si>
+  <si>
+    <t>BH3641</t>
+  </si>
+  <si>
+    <t>oppD</t>
+  </si>
+  <si>
+    <t>oppF</t>
+  </si>
+  <si>
+    <t>appB</t>
+  </si>
+  <si>
+    <t>oppC</t>
+  </si>
+  <si>
+    <t>oppA</t>
+  </si>
+  <si>
+    <t>BH0758</t>
+  </si>
+  <si>
+    <t>pucL</t>
+  </si>
+  <si>
+    <t>pucM</t>
+  </si>
+  <si>
+    <t>BH0761</t>
+  </si>
+  <si>
+    <t>pucG</t>
+  </si>
+  <si>
+    <t>BH0746</t>
+  </si>
+  <si>
+    <t>pucR</t>
+  </si>
+  <si>
+    <t>yqzL</t>
+  </si>
+  <si>
+    <t>recO</t>
+  </si>
+  <si>
+    <t>urtA</t>
+  </si>
+  <si>
+    <t>utrD</t>
+  </si>
+  <si>
+    <t>ysnE</t>
+  </si>
+  <si>
+    <t>yuiA</t>
+  </si>
+  <si>
+    <t>yuiB</t>
+  </si>
+  <si>
+    <t>yuiC</t>
+  </si>
+  <si>
+    <t>yumC</t>
+  </si>
+  <si>
+    <t>glnA2</t>
+  </si>
+  <si>
+    <t>BH3901</t>
+  </si>
+  <si>
+    <t>BH3900</t>
+  </si>
+  <si>
+    <t>BH2222</t>
+  </si>
+  <si>
+    <t>yrbE</t>
+  </si>
+  <si>
+    <t>BH2220</t>
+  </si>
+  <si>
+    <t>iolR1</t>
+  </si>
+  <si>
+    <t>hmp</t>
+  </si>
+  <si>
+    <t>hisZ</t>
+  </si>
+  <si>
+    <t>hisG</t>
+  </si>
+  <si>
+    <t>hisD</t>
+  </si>
+  <si>
+    <t>hisB</t>
+  </si>
+  <si>
+    <t>hisH</t>
+  </si>
+  <si>
+    <t>hisA</t>
+  </si>
+  <si>
+    <t>hisF</t>
+  </si>
+  <si>
+    <t>hisIE</t>
+  </si>
+  <si>
+    <t>yuiF</t>
+  </si>
+  <si>
+    <t>BH2995</t>
+  </si>
+  <si>
+    <t>arsR</t>
+  </si>
+  <si>
+    <t>aseR</t>
+  </si>
+  <si>
+    <t>aseA</t>
+  </si>
+  <si>
+    <t>arsC</t>
+  </si>
+  <si>
+    <t>sdpR</t>
+  </si>
+  <si>
+    <t>sdpI</t>
+  </si>
+  <si>
+    <t>rocR</t>
+  </si>
+  <si>
+    <t>rocD</t>
+  </si>
+  <si>
+    <t>rocG</t>
+  </si>
+  <si>
+    <t>BH3941</t>
+  </si>
+  <si>
+    <t>rocA</t>
+  </si>
+  <si>
+    <t>acoA</t>
+  </si>
+  <si>
+    <t>acoB</t>
+  </si>
+  <si>
+    <t>acoC</t>
+  </si>
+  <si>
+    <t>acoL</t>
+  </si>
+  <si>
+    <t>bcd</t>
+  </si>
+  <si>
+    <t>lpdV</t>
+  </si>
+  <si>
+    <t>bkdAA</t>
+  </si>
+  <si>
+    <t>bkdAB</t>
+  </si>
+  <si>
+    <t>bkdB</t>
+  </si>
+  <si>
+    <t>BH3916</t>
+  </si>
+  <si>
+    <t>gapB</t>
+  </si>
+  <si>
+    <t>pckA</t>
+  </si>
+  <si>
+    <t>fadN</t>
+  </si>
+  <si>
+    <t>fadA</t>
+  </si>
+  <si>
+    <t>fadE</t>
+  </si>
+  <si>
+    <t>fadF</t>
+  </si>
+  <si>
+    <t>acdA</t>
+  </si>
+  <si>
+    <t>fadR</t>
+  </si>
+  <si>
+    <t>fadB</t>
+  </si>
+  <si>
+    <t>etfB</t>
+  </si>
+  <si>
+    <t>etfA</t>
+  </si>
+  <si>
+    <t>BH2144</t>
+  </si>
+  <si>
+    <t>BH3384</t>
+  </si>
+  <si>
+    <t>yteP</t>
+  </si>
+  <si>
+    <t>rhiN2</t>
+  </si>
+  <si>
+    <t>yteS</t>
+  </si>
+  <si>
+    <t>yteT</t>
+  </si>
+  <si>
+    <t>yteU</t>
+  </si>
+  <si>
+    <t>BH0489</t>
+  </si>
+  <si>
+    <t>uxaA</t>
+  </si>
+  <si>
+    <t>BH0491</t>
+  </si>
+  <si>
+    <t>uxaB</t>
+  </si>
+  <si>
+    <t>BH0493</t>
+  </si>
+  <si>
+    <t>pelX</t>
+  </si>
+  <si>
+    <t>gltO</t>
+  </si>
+  <si>
+    <t>ilvD</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>dppC</t>
+  </si>
+  <si>
+    <t>dppB</t>
+  </si>
+  <si>
+    <t>hpr</t>
+  </si>
+  <si>
+    <t>mcpC</t>
+  </si>
+  <si>
+    <t>spo0A</t>
+  </si>
+  <si>
+    <t>BH2374</t>
+  </si>
+  <si>
+    <t>BH2373</t>
+  </si>
+  <si>
+    <t>BH3439</t>
+  </si>
+  <si>
+    <t>oppB</t>
+  </si>
+  <si>
+    <t>appD</t>
+  </si>
+  <si>
+    <t>BH0352</t>
+  </si>
+  <si>
+    <t>lutP</t>
+  </si>
+  <si>
+    <t>oppA2</t>
+  </si>
+  <si>
+    <t>pelB</t>
+  </si>
+  <si>
+    <t>gltA</t>
+  </si>
+  <si>
+    <t>gltB</t>
+  </si>
+  <si>
+    <t>glyP</t>
+  </si>
+  <si>
+    <t>ytcI</t>
+  </si>
+  <si>
+    <t>yocS</t>
+  </si>
+  <si>
+    <t>gltC2</t>
+  </si>
+  <si>
+    <t>gdhA</t>
+  </si>
+  <si>
+    <t>abfA</t>
+  </si>
+  <si>
+    <t>egsA</t>
+  </si>
+  <si>
+    <t>araD</t>
+  </si>
+  <si>
+    <t>araB</t>
+  </si>
+  <si>
+    <t>araA</t>
+  </si>
+  <si>
+    <t>xsa</t>
+  </si>
+  <si>
+    <t>araR</t>
+  </si>
+  <si>
+    <t>BH1061</t>
+  </si>
+  <si>
+    <t>BH4045</t>
+  </si>
+  <si>
+    <t>nagR</t>
+  </si>
+  <si>
+    <t>BH0384</t>
+  </si>
+  <si>
+    <t>yhcF</t>
+  </si>
+  <si>
+    <t>yhcG</t>
+  </si>
+  <si>
+    <t>BH3495</t>
+  </si>
+  <si>
+    <t>kipI</t>
+  </si>
+  <si>
+    <t>kipA</t>
+  </si>
+  <si>
+    <t>bceA</t>
+  </si>
+  <si>
+    <t>bceB</t>
+  </si>
+  <si>
+    <t>fabI</t>
+  </si>
+  <si>
+    <t>fabHB</t>
+  </si>
+  <si>
+    <t>fabHA</t>
+  </si>
+  <si>
+    <t>fabF</t>
+  </si>
+  <si>
+    <t>fapR</t>
+  </si>
+  <si>
+    <t>plsX</t>
+  </si>
+  <si>
+    <t>fabD</t>
+  </si>
+  <si>
+    <t>acpA</t>
+  </si>
+  <si>
+    <t>yxlH</t>
+  </si>
+  <si>
+    <t>iolH</t>
+  </si>
+  <si>
+    <t>fruR</t>
+  </si>
+  <si>
+    <t>fruK</t>
+  </si>
+  <si>
+    <t>fruA</t>
+  </si>
+  <si>
+    <t>ctsR</t>
+  </si>
+  <si>
+    <t>mcsA</t>
+  </si>
+  <si>
+    <t>mcsB</t>
+  </si>
+  <si>
+    <t>clpC</t>
+  </si>
+  <si>
+    <t>radA</t>
+  </si>
+  <si>
+    <t>yacK</t>
+  </si>
+  <si>
+    <t>clpP</t>
+  </si>
+  <si>
+    <t>clpE</t>
+  </si>
+  <si>
+    <t>sspI</t>
+  </si>
+  <si>
+    <t>copA</t>
+  </si>
+  <si>
+    <t>copZ</t>
+  </si>
+  <si>
+    <t>glcR</t>
+  </si>
+  <si>
+    <t>ywpJ</t>
+  </si>
+  <si>
+    <t>citM</t>
+  </si>
+  <si>
+    <t>rhaEW</t>
+  </si>
+  <si>
+    <t>rhaB</t>
+  </si>
+  <si>
+    <t>rhaA</t>
+  </si>
+  <si>
+    <t>rhaR</t>
+  </si>
+  <si>
+    <t>yybR</t>
+  </si>
+  <si>
+    <t>BH0738</t>
+  </si>
+  <si>
+    <t>catD</t>
+  </si>
+  <si>
+    <t>catE</t>
+  </si>
+  <si>
+    <t>yodC</t>
+  </si>
+  <si>
+    <t>BH3304</t>
+  </si>
+  <si>
+    <t>BH3305</t>
+  </si>
+  <si>
+    <t>ydfF</t>
+  </si>
+  <si>
+    <t>ydfE</t>
+  </si>
+  <si>
+    <t>yybA</t>
+  </si>
+  <si>
+    <t>paiA</t>
+  </si>
+  <si>
+    <t>yyaS</t>
+  </si>
+  <si>
+    <t>yhgD</t>
+  </si>
+  <si>
+    <t>yhgE</t>
+  </si>
+  <si>
+    <t>yflS</t>
+  </si>
+  <si>
+    <t>chiA</t>
+  </si>
+  <si>
+    <t>licH</t>
+  </si>
+  <si>
+    <t>ywbA</t>
+  </si>
+  <si>
+    <t>ywbB</t>
+  </si>
+  <si>
+    <t>ywbC</t>
+  </si>
+  <si>
+    <t>BH0913</t>
+  </si>
+  <si>
+    <t>uxuB</t>
+  </si>
+  <si>
+    <t>liaI</t>
+  </si>
+  <si>
+    <t>liaH</t>
+  </si>
+  <si>
+    <t>liaG</t>
+  </si>
+  <si>
+    <t>liaF</t>
+  </si>
+  <si>
+    <t>liaS</t>
+  </si>
+  <si>
+    <t>liaR</t>
+  </si>
+  <si>
+    <t>yvcR</t>
+  </si>
+  <si>
+    <t>yvcS</t>
+  </si>
+  <si>
+    <t>gdb1</t>
+  </si>
+  <si>
+    <t>kojE</t>
+  </si>
+  <si>
+    <t>kojF</t>
+  </si>
+  <si>
+    <t>kojG</t>
+  </si>
+  <si>
+    <t>kojR</t>
+  </si>
+  <si>
+    <t>nplT</t>
+  </si>
+  <si>
+    <t>malE</t>
+  </si>
+  <si>
+    <t>malF</t>
+  </si>
+  <si>
+    <t>malG</t>
+  </si>
+  <si>
+    <t>malR2</t>
+  </si>
+  <si>
+    <t>BH0413</t>
+  </si>
+  <si>
+    <t>BH2903</t>
+  </si>
+  <si>
+    <t>BH1244</t>
+  </si>
+  <si>
+    <t>BH1245</t>
+  </si>
+  <si>
+    <t>BH1246</t>
+  </si>
+  <si>
+    <t>BH1247</t>
+  </si>
+  <si>
+    <t>BH1248</t>
+  </si>
+  <si>
+    <t>BH1249</t>
+  </si>
+  <si>
+    <t>scrA</t>
+  </si>
+  <si>
+    <t>scrK</t>
+  </si>
+  <si>
+    <t>scrB</t>
+  </si>
+  <si>
+    <t>malL</t>
+  </si>
+  <si>
+    <t>amyA</t>
+  </si>
+  <si>
+    <t>ABC3919</t>
+  </si>
+  <si>
+    <t>ABC3917</t>
+  </si>
+  <si>
+    <t>ABC3916</t>
+  </si>
+  <si>
+    <t>ABC3915</t>
+  </si>
+  <si>
+    <t>lp_2743</t>
+  </si>
+  <si>
+    <t>lp_2744</t>
+  </si>
+  <si>
+    <t>BH0652</t>
+  </si>
+  <si>
+    <t>BH0653</t>
+  </si>
+  <si>
+    <t>yhcF2</t>
+  </si>
+  <si>
+    <t>BH2648</t>
+  </si>
+  <si>
+    <t>BH2649</t>
+  </si>
+  <si>
+    <t>BH2650</t>
+  </si>
+  <si>
+    <t>pdxO</t>
+  </si>
+  <si>
+    <t>BH0390</t>
+  </si>
+  <si>
+    <t>putA</t>
   </si>
 </sst>
 </file>
@@ -2800,7 +2791,7 @@
         <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110">
@@ -2816,7 +2807,7 @@
         <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112">
@@ -2824,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113">
@@ -2832,7 +2823,7 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114">
@@ -2840,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115">
@@ -2848,7 +2839,7 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116">
@@ -2856,7 +2847,7 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117">
@@ -2864,7 +2855,7 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118">
@@ -2872,7 +2863,7 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119">
@@ -2880,7 +2871,7 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120">
@@ -2888,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121">
@@ -2896,7 +2887,7 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122">
@@ -2904,7 +2895,7 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123">
@@ -2912,7 +2903,7 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124">
@@ -2920,7 +2911,7 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125">
@@ -2928,7 +2919,7 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129">
@@ -2960,7 +2951,7 @@
         <v>16</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130">
@@ -2968,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131">
@@ -2976,7 +2967,7 @@
         <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132">
@@ -2984,7 +2975,7 @@
         <v>16</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133">
@@ -2992,7 +2983,7 @@
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134">
@@ -3000,7 +2991,7 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="135">
@@ -3008,7 +2999,7 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136">
@@ -3016,7 +3007,7 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137">
@@ -3024,7 +3015,7 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="138">
@@ -3032,7 +3023,7 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139">
@@ -3040,7 +3031,7 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140">
@@ -3048,7 +3039,7 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="141">
@@ -3056,7 +3047,7 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="142">
@@ -3064,7 +3055,7 @@
         <v>18</v>
       </c>
       <c r="B142" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143">
@@ -3072,7 +3063,7 @@
         <v>18</v>
       </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144">
@@ -3080,7 +3071,7 @@
         <v>18</v>
       </c>
       <c r="B144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145">
@@ -3088,7 +3079,7 @@
         <v>18</v>
       </c>
       <c r="B145" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="146">
@@ -3096,7 +3087,7 @@
         <v>18</v>
       </c>
       <c r="B146" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147">
@@ -3104,7 +3095,7 @@
         <v>18</v>
       </c>
       <c r="B147" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="148">
@@ -3112,7 +3103,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="149">
@@ -3120,7 +3111,7 @@
         <v>18</v>
       </c>
       <c r="B149" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="150">
@@ -3128,7 +3119,7 @@
         <v>18</v>
       </c>
       <c r="B150" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="151">
@@ -3136,7 +3127,7 @@
         <v>18</v>
       </c>
       <c r="B151" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="152">
@@ -3144,7 +3135,7 @@
         <v>18</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="153">
@@ -3152,7 +3143,7 @@
         <v>18</v>
       </c>
       <c r="B153" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="154">
@@ -3160,7 +3151,7 @@
         <v>19</v>
       </c>
       <c r="B154" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="155">
@@ -3168,7 +3159,7 @@
         <v>19</v>
       </c>
       <c r="B155" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156">
@@ -3176,7 +3167,7 @@
         <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="157">
@@ -3184,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158">
@@ -3192,7 +3183,7 @@
         <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159">
@@ -3200,7 +3191,7 @@
         <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160">
@@ -3208,7 +3199,7 @@
         <v>20</v>
       </c>
       <c r="B160" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161">
@@ -3216,7 +3207,7 @@
         <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162">
@@ -3224,7 +3215,7 @@
         <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163">
@@ -3232,7 +3223,7 @@
         <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164">
@@ -3240,7 +3231,7 @@
         <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="165">
@@ -3248,7 +3239,7 @@
         <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166">
@@ -3256,7 +3247,7 @@
         <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="167">
@@ -3264,7 +3255,7 @@
         <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="168">
@@ -3272,7 +3263,7 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="169">
@@ -3280,7 +3271,7 @@
         <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170">
@@ -3288,7 +3279,7 @@
         <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="171">
@@ -3296,7 +3287,7 @@
         <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="172">
@@ -3304,7 +3295,7 @@
         <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="173">
@@ -3312,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="174">
@@ -3320,7 +3311,7 @@
         <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175">
@@ -3328,7 +3319,7 @@
         <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176">
@@ -3336,7 +3327,7 @@
         <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177">
@@ -3344,7 +3335,7 @@
         <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178">
@@ -3352,7 +3343,7 @@
         <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179">
@@ -3360,7 +3351,7 @@
         <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180">
@@ -3368,7 +3359,7 @@
         <v>20</v>
       </c>
       <c r="B180" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181">
@@ -3376,7 +3367,7 @@
         <v>21</v>
       </c>
       <c r="B181" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182">
@@ -3384,7 +3375,7 @@
         <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183">
@@ -3392,7 +3383,7 @@
         <v>22</v>
       </c>
       <c r="B183" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184">
@@ -3400,7 +3391,7 @@
         <v>22</v>
       </c>
       <c r="B184" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185">
@@ -3408,7 +3399,7 @@
         <v>22</v>
       </c>
       <c r="B185" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186">
@@ -3464,7 +3455,7 @@
         <v>22</v>
       </c>
       <c r="B192" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193">
@@ -3472,7 +3463,7 @@
         <v>22</v>
       </c>
       <c r="B193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="194">
@@ -3480,7 +3471,7 @@
         <v>22</v>
       </c>
       <c r="B194" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195">
@@ -3488,7 +3479,7 @@
         <v>22</v>
       </c>
       <c r="B195" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196">
@@ -3496,7 +3487,7 @@
         <v>22</v>
       </c>
       <c r="B196" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197">
@@ -3504,7 +3495,7 @@
         <v>22</v>
       </c>
       <c r="B197" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="198">
@@ -3512,7 +3503,7 @@
         <v>22</v>
       </c>
       <c r="B198" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="199">
@@ -3520,7 +3511,7 @@
         <v>22</v>
       </c>
       <c r="B199" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="200">
@@ -3528,7 +3519,7 @@
         <v>22</v>
       </c>
       <c r="B200" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="201">
@@ -3536,7 +3527,7 @@
         <v>22</v>
       </c>
       <c r="B201" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202">
@@ -3544,7 +3535,7 @@
         <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>272</v>
       </c>
     </row>
     <row r="203">
@@ -3864,7 +3855,7 @@
         <v>22</v>
       </c>
       <c r="B242" t="s">
-        <v>308</v>
+        <v>112</v>
       </c>
     </row>
     <row r="243">
@@ -3872,7 +3863,7 @@
         <v>22</v>
       </c>
       <c r="B243" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244">
@@ -3880,7 +3871,7 @@
         <v>22</v>
       </c>
       <c r="B244" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245">
@@ -3888,7 +3879,7 @@
         <v>22</v>
       </c>
       <c r="B245" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="246">
@@ -3896,7 +3887,7 @@
         <v>22</v>
       </c>
       <c r="B246" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247">
@@ -3904,7 +3895,7 @@
         <v>22</v>
       </c>
       <c r="B247" t="s">
-        <v>313</v>
+        <v>121</v>
       </c>
     </row>
     <row r="248">
@@ -3912,7 +3903,7 @@
         <v>22</v>
       </c>
       <c r="B248" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="249">
@@ -3920,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="B249" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250">
@@ -3928,7 +3919,7 @@
         <v>22</v>
       </c>
       <c r="B250" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="251">
@@ -3936,7 +3927,7 @@
         <v>22</v>
       </c>
       <c r="B251" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="252">
@@ -3944,7 +3935,7 @@
         <v>22</v>
       </c>
       <c r="B252" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253">
@@ -3952,7 +3943,7 @@
         <v>22</v>
       </c>
       <c r="B253" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="254">
@@ -3960,7 +3951,7 @@
         <v>22</v>
       </c>
       <c r="B254" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255">
@@ -3968,7 +3959,7 @@
         <v>22</v>
       </c>
       <c r="B255" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256">
@@ -3976,7 +3967,7 @@
         <v>22</v>
       </c>
       <c r="B256" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257">
@@ -3992,7 +3983,7 @@
         <v>22</v>
       </c>
       <c r="B258" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259">
@@ -4000,7 +3991,7 @@
         <v>22</v>
       </c>
       <c r="B259" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="260">
@@ -4008,7 +3999,7 @@
         <v>22</v>
       </c>
       <c r="B260" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="261">
@@ -4016,7 +4007,7 @@
         <v>22</v>
       </c>
       <c r="B261" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="262">
@@ -4024,7 +4015,7 @@
         <v>22</v>
       </c>
       <c r="B262" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="263">
@@ -4032,7 +4023,7 @@
         <v>22</v>
       </c>
       <c r="B263" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="264">
@@ -4040,7 +4031,7 @@
         <v>22</v>
       </c>
       <c r="B264" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="265">
@@ -4048,7 +4039,7 @@
         <v>22</v>
       </c>
       <c r="B265" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="266">
@@ -4056,7 +4047,7 @@
         <v>22</v>
       </c>
       <c r="B266" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267">
@@ -4064,7 +4055,7 @@
         <v>22</v>
       </c>
       <c r="B267" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="268">
@@ -4072,7 +4063,7 @@
         <v>22</v>
       </c>
       <c r="B268" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="269">
@@ -4080,7 +4071,7 @@
         <v>22</v>
       </c>
       <c r="B269" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="270">
@@ -4088,7 +4079,7 @@
         <v>22</v>
       </c>
       <c r="B270" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="271">
@@ -4096,7 +4087,7 @@
         <v>22</v>
       </c>
       <c r="B271" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="272">
@@ -4104,7 +4095,7 @@
         <v>22</v>
       </c>
       <c r="B272" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="273">
@@ -4112,7 +4103,7 @@
         <v>22</v>
       </c>
       <c r="B273" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="274">
@@ -4120,7 +4111,7 @@
         <v>22</v>
       </c>
       <c r="B274" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="275">
@@ -4128,7 +4119,7 @@
         <v>22</v>
       </c>
       <c r="B275" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="276">
@@ -4176,7 +4167,7 @@
         <v>22</v>
       </c>
       <c r="B281" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="282">
@@ -4184,7 +4175,7 @@
         <v>22</v>
       </c>
       <c r="B282" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="283">
@@ -4192,7 +4183,7 @@
         <v>22</v>
       </c>
       <c r="B283" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="284">
@@ -4200,7 +4191,7 @@
         <v>22</v>
       </c>
       <c r="B284" t="s">
-        <v>340</v>
+        <v>41</v>
       </c>
     </row>
     <row r="285">
@@ -4208,7 +4199,7 @@
         <v>22</v>
       </c>
       <c r="B285" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="286">
@@ -4216,7 +4207,7 @@
         <v>22</v>
       </c>
       <c r="B286" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="287">
@@ -4224,7 +4215,7 @@
         <v>22</v>
       </c>
       <c r="B287" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="288">
@@ -4232,7 +4223,7 @@
         <v>22</v>
       </c>
       <c r="B288" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="289">
@@ -4240,7 +4231,7 @@
         <v>22</v>
       </c>
       <c r="B289" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="290">
@@ -4248,7 +4239,7 @@
         <v>22</v>
       </c>
       <c r="B290" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="291">
@@ -4256,7 +4247,7 @@
         <v>22</v>
       </c>
       <c r="B291" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="292">
@@ -4264,7 +4255,7 @@
         <v>22</v>
       </c>
       <c r="B292" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="293">
@@ -4272,7 +4263,7 @@
         <v>22</v>
       </c>
       <c r="B293" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="294">
@@ -4280,7 +4271,7 @@
         <v>22</v>
       </c>
       <c r="B294" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="295">
@@ -4288,7 +4279,7 @@
         <v>22</v>
       </c>
       <c r="B295" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="296">
@@ -4296,7 +4287,7 @@
         <v>22</v>
       </c>
       <c r="B296" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="297">
@@ -4304,7 +4295,7 @@
         <v>22</v>
       </c>
       <c r="B297" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="298">
@@ -4312,7 +4303,7 @@
         <v>22</v>
       </c>
       <c r="B298" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="299">
@@ -4320,7 +4311,7 @@
         <v>22</v>
       </c>
       <c r="B299" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="300">
@@ -4328,7 +4319,7 @@
         <v>22</v>
       </c>
       <c r="B300" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="301">
@@ -4336,7 +4327,7 @@
         <v>22</v>
       </c>
       <c r="B301" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="302">
@@ -4344,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="B302" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="303">
@@ -4352,7 +4343,7 @@
         <v>23</v>
       </c>
       <c r="B303" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="304">
@@ -4360,7 +4351,7 @@
         <v>23</v>
       </c>
       <c r="B304" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="305">
@@ -4368,7 +4359,7 @@
         <v>23</v>
       </c>
       <c r="B305" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="306">
@@ -4376,7 +4367,7 @@
         <v>23</v>
       </c>
       <c r="B306" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="307">
@@ -4384,7 +4375,7 @@
         <v>23</v>
       </c>
       <c r="B307" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="308">
@@ -4392,7 +4383,7 @@
         <v>23</v>
       </c>
       <c r="B308" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="309">
@@ -4400,7 +4391,7 @@
         <v>23</v>
       </c>
       <c r="B309" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="310">
@@ -4408,7 +4399,7 @@
         <v>23</v>
       </c>
       <c r="B310" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="311">
@@ -4416,7 +4407,7 @@
         <v>23</v>
       </c>
       <c r="B311" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="312">
@@ -4424,7 +4415,7 @@
         <v>23</v>
       </c>
       <c r="B312" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="313">
@@ -4432,7 +4423,7 @@
         <v>23</v>
       </c>
       <c r="B313" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="314">
@@ -4440,7 +4431,7 @@
         <v>23</v>
       </c>
       <c r="B314" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="315">
@@ -4448,7 +4439,7 @@
         <v>23</v>
       </c>
       <c r="B315" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="316">
@@ -4456,7 +4447,7 @@
         <v>24</v>
       </c>
       <c r="B316" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="317">
@@ -4464,7 +4455,7 @@
         <v>24</v>
       </c>
       <c r="B317" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="318">
@@ -4472,7 +4463,7 @@
         <v>24</v>
       </c>
       <c r="B318" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="319">
@@ -4480,7 +4471,7 @@
         <v>24</v>
       </c>
       <c r="B319" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="320">
@@ -4488,7 +4479,7 @@
         <v>24</v>
       </c>
       <c r="B320" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
     </row>
     <row r="321">
@@ -4496,7 +4487,7 @@
         <v>25</v>
       </c>
       <c r="B321" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="322">
@@ -4504,7 +4495,7 @@
         <v>25</v>
       </c>
       <c r="B322" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="323">
@@ -4512,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="B323" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="324">
@@ -4520,7 +4511,7 @@
         <v>26</v>
       </c>
       <c r="B324" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="325">
@@ -4528,7 +4519,7 @@
         <v>26</v>
       </c>
       <c r="B325" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="326">
@@ -4536,7 +4527,7 @@
         <v>26</v>
       </c>
       <c r="B326" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="327">
@@ -4544,7 +4535,7 @@
         <v>26</v>
       </c>
       <c r="B327" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="328">
@@ -4552,7 +4543,7 @@
         <v>26</v>
       </c>
       <c r="B328" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="329">
@@ -4560,7 +4551,7 @@
         <v>26</v>
       </c>
       <c r="B329" t="s">
-        <v>383</v>
+        <v>308</v>
       </c>
     </row>
     <row r="330">
@@ -4568,7 +4559,7 @@
         <v>27</v>
       </c>
       <c r="B330" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="331">
@@ -4576,7 +4567,7 @@
         <v>27</v>
       </c>
       <c r="B331" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="332">
@@ -4584,7 +4575,7 @@
         <v>27</v>
       </c>
       <c r="B332" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="333">
@@ -4592,7 +4583,7 @@
         <v>27</v>
       </c>
       <c r="B333" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="334">
@@ -4600,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="B334" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="335">
@@ -4608,7 +4599,7 @@
         <v>27</v>
       </c>
       <c r="B335" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="336">
@@ -4616,7 +4607,7 @@
         <v>27</v>
       </c>
       <c r="B336" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="337">
@@ -4624,7 +4615,7 @@
         <v>27</v>
       </c>
       <c r="B337" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="338">
@@ -4632,7 +4623,7 @@
         <v>27</v>
       </c>
       <c r="B338" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="339">
@@ -4672,7 +4663,7 @@
         <v>27</v>
       </c>
       <c r="B343" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="344">
@@ -4680,7 +4671,7 @@
         <v>27</v>
       </c>
       <c r="B344" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="345">
@@ -4688,7 +4679,7 @@
         <v>27</v>
       </c>
       <c r="B345" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="346">
@@ -4696,7 +4687,7 @@
         <v>27</v>
       </c>
       <c r="B346" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="347">
@@ -4704,7 +4695,7 @@
         <v>27</v>
       </c>
       <c r="B347" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="348">
@@ -4712,7 +4703,7 @@
         <v>27</v>
       </c>
       <c r="B348" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="349">
@@ -4720,7 +4711,7 @@
         <v>27</v>
       </c>
       <c r="B349" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="350">
@@ -4728,7 +4719,7 @@
         <v>27</v>
       </c>
       <c r="B350" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="351">
@@ -4736,7 +4727,7 @@
         <v>27</v>
       </c>
       <c r="B351" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="352">
@@ -4744,7 +4735,7 @@
         <v>27</v>
       </c>
       <c r="B352" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="353">
@@ -4752,7 +4743,7 @@
         <v>27</v>
       </c>
       <c r="B353" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="354">
@@ -4760,7 +4751,7 @@
         <v>27</v>
       </c>
       <c r="B354" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="355">
@@ -4768,7 +4759,7 @@
         <v>27</v>
       </c>
       <c r="B355" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="356">
@@ -4776,7 +4767,7 @@
         <v>27</v>
       </c>
       <c r="B356" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="357">
@@ -4784,7 +4775,7 @@
         <v>27</v>
       </c>
       <c r="B357" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="358">
@@ -4792,7 +4783,7 @@
         <v>27</v>
       </c>
       <c r="B358" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="359">
@@ -4800,7 +4791,7 @@
         <v>27</v>
       </c>
       <c r="B359" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="360">
@@ -4808,7 +4799,7 @@
         <v>27</v>
       </c>
       <c r="B360" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="361">
@@ -4816,7 +4807,7 @@
         <v>27</v>
       </c>
       <c r="B361" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="362">
@@ -4824,7 +4815,7 @@
         <v>27</v>
       </c>
       <c r="B362" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
     </row>
     <row r="363">
@@ -4832,7 +4823,7 @@
         <v>27</v>
       </c>
       <c r="B363" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="364">
@@ -4840,7 +4831,7 @@
         <v>27</v>
       </c>
       <c r="B364" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="365">
@@ -4848,7 +4839,7 @@
         <v>27</v>
       </c>
       <c r="B365" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
     </row>
     <row r="366">
@@ -4856,7 +4847,7 @@
         <v>27</v>
       </c>
       <c r="B366" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="367">
@@ -4864,7 +4855,7 @@
         <v>27</v>
       </c>
       <c r="B367" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="368">
@@ -4872,7 +4863,7 @@
         <v>27</v>
       </c>
       <c r="B368" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="369">
@@ -4880,7 +4871,7 @@
         <v>27</v>
       </c>
       <c r="B369" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="370">
@@ -4888,7 +4879,7 @@
         <v>27</v>
       </c>
       <c r="B370" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="371">
@@ -4896,7 +4887,7 @@
         <v>27</v>
       </c>
       <c r="B371" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="372">
@@ -4904,7 +4895,7 @@
         <v>27</v>
       </c>
       <c r="B372" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="373">
@@ -4912,7 +4903,7 @@
         <v>27</v>
       </c>
       <c r="B373" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="374">
@@ -5264,7 +5255,7 @@
         <v>37</v>
       </c>
       <c r="B417" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="418">
@@ -5272,7 +5263,7 @@
         <v>37</v>
       </c>
       <c r="B418" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="419">
@@ -5280,7 +5271,7 @@
         <v>37</v>
       </c>
       <c r="B419" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="420">
@@ -5288,7 +5279,7 @@
         <v>37</v>
       </c>
       <c r="B420" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="421">
@@ -5296,7 +5287,7 @@
         <v>37</v>
       </c>
       <c r="B421" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="422">
@@ -5360,7 +5351,7 @@
         <v>39</v>
       </c>
       <c r="B429" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="430">
@@ -5368,7 +5359,7 @@
         <v>39</v>
       </c>
       <c r="B430" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="431">
@@ -5376,7 +5367,7 @@
         <v>39</v>
       </c>
       <c r="B431" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="432">
@@ -5440,7 +5431,7 @@
         <v>40</v>
       </c>
       <c r="B439" t="s">
-        <v>468</v>
+        <v>86</v>
       </c>
     </row>
     <row r="440">
@@ -5448,7 +5439,7 @@
         <v>40</v>
       </c>
       <c r="B440" t="s">
-        <v>469</v>
+        <v>84</v>
       </c>
     </row>
     <row r="441">
@@ -5456,7 +5447,7 @@
         <v>41</v>
       </c>
       <c r="B441" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="442">
@@ -5464,7 +5455,7 @@
         <v>41</v>
       </c>
       <c r="B442" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="443">
@@ -5472,7 +5463,7 @@
         <v>41</v>
       </c>
       <c r="B443" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="444">
@@ -5480,7 +5471,7 @@
         <v>41</v>
       </c>
       <c r="B444" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="445">
@@ -5488,7 +5479,7 @@
         <v>41</v>
       </c>
       <c r="B445" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="446">
@@ -5496,7 +5487,7 @@
         <v>41</v>
       </c>
       <c r="B446" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="447">
@@ -5504,7 +5495,7 @@
         <v>41</v>
       </c>
       <c r="B447" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="448">
@@ -5512,7 +5503,7 @@
         <v>41</v>
       </c>
       <c r="B448" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="449">
@@ -5520,7 +5511,7 @@
         <v>41</v>
       </c>
       <c r="B449" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="450">
@@ -5528,7 +5519,7 @@
         <v>41</v>
       </c>
       <c r="B450" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="451">
@@ -5536,7 +5527,7 @@
         <v>41</v>
       </c>
       <c r="B451" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="452">
@@ -5544,7 +5535,7 @@
         <v>42</v>
       </c>
       <c r="B452" t="s">
-        <v>388</v>
+        <v>479</v>
       </c>
     </row>
     <row r="453">
@@ -5552,7 +5543,7 @@
         <v>42</v>
       </c>
       <c r="B453" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="454">
@@ -5560,7 +5551,7 @@
         <v>42</v>
       </c>
       <c r="B454" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="455">
@@ -5568,7 +5559,7 @@
         <v>42</v>
       </c>
       <c r="B455" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="456">
@@ -5576,7 +5567,7 @@
         <v>42</v>
       </c>
       <c r="B456" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="457">
@@ -5584,7 +5575,7 @@
         <v>42</v>
       </c>
       <c r="B457" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="458">
@@ -5592,7 +5583,7 @@
         <v>42</v>
       </c>
       <c r="B458" t="s">
-        <v>485</v>
+        <v>395</v>
       </c>
     </row>
     <row r="459">
@@ -5600,7 +5591,7 @@
         <v>42</v>
       </c>
       <c r="B459" t="s">
-        <v>486</v>
+        <v>396</v>
       </c>
     </row>
     <row r="460">
@@ -5632,7 +5623,7 @@
         <v>42</v>
       </c>
       <c r="B463" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="464">
@@ -5640,7 +5631,7 @@
         <v>42</v>
       </c>
       <c r="B464" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="465">
@@ -5648,7 +5639,7 @@
         <v>42</v>
       </c>
       <c r="B465" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="466">
@@ -5656,7 +5647,7 @@
         <v>42</v>
       </c>
       <c r="B466" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="467">
@@ -5664,7 +5655,7 @@
         <v>42</v>
       </c>
       <c r="B467" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="468">
@@ -5672,7 +5663,7 @@
         <v>42</v>
       </c>
       <c r="B468" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="469">
@@ -5680,7 +5671,7 @@
         <v>42</v>
       </c>
       <c r="B469" t="s">
-        <v>493</v>
+        <v>399</v>
       </c>
     </row>
     <row r="470">
@@ -5688,7 +5679,7 @@
         <v>42</v>
       </c>
       <c r="B470" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="471">
@@ -5696,7 +5687,7 @@
         <v>42</v>
       </c>
       <c r="B471" t="s">
-        <v>495</v>
+        <v>398</v>
       </c>
     </row>
     <row r="472">
@@ -5704,7 +5695,7 @@
         <v>42</v>
       </c>
       <c r="B472" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="473">
@@ -5712,7 +5703,7 @@
         <v>42</v>
       </c>
       <c r="B473" t="s">
-        <v>497</v>
+        <v>396</v>
       </c>
     </row>
     <row r="474">
@@ -5720,7 +5711,7 @@
         <v>42</v>
       </c>
       <c r="B474" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="475">
@@ -5728,7 +5719,7 @@
         <v>42</v>
       </c>
       <c r="B475" t="s">
-        <v>313</v>
+        <v>493</v>
       </c>
     </row>
     <row r="476">
@@ -5736,7 +5727,7 @@
         <v>42</v>
       </c>
       <c r="B476" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="477">
@@ -5744,7 +5735,7 @@
         <v>42</v>
       </c>
       <c r="B477" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="478">
@@ -5752,7 +5743,7 @@
         <v>42</v>
       </c>
       <c r="B478" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="479">
@@ -5760,7 +5751,7 @@
         <v>42</v>
       </c>
       <c r="B479" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="480">
@@ -5768,7 +5759,7 @@
         <v>42</v>
       </c>
       <c r="B480" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="481">
@@ -5776,7 +5767,7 @@
         <v>42</v>
       </c>
       <c r="B481" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="482">
@@ -5784,7 +5775,7 @@
         <v>42</v>
       </c>
       <c r="B482" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="483">
@@ -5792,7 +5783,7 @@
         <v>42</v>
       </c>
       <c r="B483" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="484">
@@ -5800,7 +5791,7 @@
         <v>42</v>
       </c>
       <c r="B484" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="485">
@@ -5808,7 +5799,7 @@
         <v>42</v>
       </c>
       <c r="B485" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="486">
@@ -5816,7 +5807,7 @@
         <v>42</v>
       </c>
       <c r="B486" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="487">
@@ -5824,7 +5815,7 @@
         <v>42</v>
       </c>
       <c r="B487" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="488">
@@ -5832,7 +5823,7 @@
         <v>42</v>
       </c>
       <c r="B488" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="489">
@@ -5864,7 +5855,7 @@
         <v>43</v>
       </c>
       <c r="B492" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="493">
@@ -5872,7 +5863,7 @@
         <v>43</v>
       </c>
       <c r="B493" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="494">
@@ -5880,7 +5871,7 @@
         <v>44</v>
       </c>
       <c r="B494" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="495">
@@ -5888,7 +5879,7 @@
         <v>44</v>
       </c>
       <c r="B495" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="496">
@@ -5896,7 +5887,7 @@
         <v>44</v>
       </c>
       <c r="B496" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="497">
@@ -5904,7 +5895,7 @@
         <v>44</v>
       </c>
       <c r="B497" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="498">
@@ -5912,7 +5903,7 @@
         <v>44</v>
       </c>
       <c r="B498" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="499">
@@ -5920,7 +5911,7 @@
         <v>44</v>
       </c>
       <c r="B499" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="500">
@@ -5928,7 +5919,7 @@
         <v>44</v>
       </c>
       <c r="B500" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="501">
@@ -5936,7 +5927,7 @@
         <v>44</v>
       </c>
       <c r="B501" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="502">
@@ -5944,7 +5935,7 @@
         <v>44</v>
       </c>
       <c r="B502" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="503">
@@ -5952,7 +5943,7 @@
         <v>44</v>
       </c>
       <c r="B503" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
     </row>
     <row r="504">
@@ -5960,7 +5951,7 @@
         <v>44</v>
       </c>
       <c r="B504" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="505">
@@ -5968,7 +5959,7 @@
         <v>44</v>
       </c>
       <c r="B505" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="506">
@@ -5976,7 +5967,7 @@
         <v>45</v>
       </c>
       <c r="B506" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="507">
@@ -5984,7 +5975,7 @@
         <v>46</v>
       </c>
       <c r="B507" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="508">
@@ -5992,7 +5983,7 @@
         <v>46</v>
       </c>
       <c r="B508" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="509">
@@ -6000,7 +5991,7 @@
         <v>46</v>
       </c>
       <c r="B509" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="510">
@@ -6008,7 +5999,7 @@
         <v>46</v>
       </c>
       <c r="B510" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="511">
@@ -6016,7 +6007,7 @@
         <v>47</v>
       </c>
       <c r="B511" t="s">
-        <v>313</v>
+        <v>493</v>
       </c>
     </row>
     <row r="512">
@@ -6024,7 +6015,7 @@
         <v>47</v>
       </c>
       <c r="B512" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="513">
@@ -6032,7 +6023,7 @@
         <v>47</v>
       </c>
       <c r="B513" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="514">
@@ -6040,7 +6031,7 @@
         <v>47</v>
       </c>
       <c r="B514" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="515">
@@ -6048,7 +6039,7 @@
         <v>48</v>
       </c>
       <c r="B515" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="516">
@@ -6056,7 +6047,7 @@
         <v>48</v>
       </c>
       <c r="B516" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="517">
@@ -6064,7 +6055,7 @@
         <v>48</v>
       </c>
       <c r="B517" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="518">
@@ -6072,7 +6063,7 @@
         <v>49</v>
       </c>
       <c r="B518" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="519">
@@ -6080,7 +6071,7 @@
         <v>50</v>
       </c>
       <c r="B519" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="520">
@@ -6088,7 +6079,7 @@
         <v>50</v>
       </c>
       <c r="B520" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="521">
@@ -6096,7 +6087,7 @@
         <v>51</v>
       </c>
       <c r="B521" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="522">
@@ -6104,7 +6095,7 @@
         <v>51</v>
       </c>
       <c r="B522" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="523">
@@ -6112,7 +6103,7 @@
         <v>52</v>
       </c>
       <c r="B523" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="524">
@@ -6120,7 +6111,7 @@
         <v>52</v>
       </c>
       <c r="B524" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="525">
@@ -6128,7 +6119,7 @@
         <v>52</v>
       </c>
       <c r="B525" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="526">
@@ -6136,7 +6127,7 @@
         <v>52</v>
       </c>
       <c r="B526" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="527">
@@ -6144,7 +6135,7 @@
         <v>52</v>
       </c>
       <c r="B527" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="528">
@@ -6152,7 +6143,7 @@
         <v>52</v>
       </c>
       <c r="B528" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="529">
@@ -6160,7 +6151,7 @@
         <v>52</v>
       </c>
       <c r="B529" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="530">
@@ -6168,7 +6159,7 @@
         <v>52</v>
       </c>
       <c r="B530" t="s">
-        <v>534</v>
+        <v>284</v>
       </c>
     </row>
     <row r="531">
@@ -6176,7 +6167,7 @@
         <v>52</v>
       </c>
       <c r="B531" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="532">
@@ -6184,7 +6175,7 @@
         <v>53</v>
       </c>
       <c r="B532" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="533">
@@ -6192,7 +6183,7 @@
         <v>53</v>
       </c>
       <c r="B533" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="534">
@@ -6200,7 +6191,7 @@
         <v>53</v>
       </c>
       <c r="B534" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="535">
@@ -6208,7 +6199,7 @@
         <v>53</v>
       </c>
       <c r="B535" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="536">
@@ -6216,7 +6207,7 @@
         <v>53</v>
       </c>
       <c r="B536" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="537">
@@ -6224,7 +6215,7 @@
         <v>53</v>
       </c>
       <c r="B537" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="538">
@@ -6232,7 +6223,7 @@
         <v>53</v>
       </c>
       <c r="B538" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="539">
@@ -6240,7 +6231,7 @@
         <v>53</v>
       </c>
       <c r="B539" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="540">
@@ -6248,7 +6239,7 @@
         <v>53</v>
       </c>
       <c r="B540" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="541">
@@ -6256,7 +6247,7 @@
         <v>53</v>
       </c>
       <c r="B541" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="542">
@@ -6264,7 +6255,7 @@
         <v>54</v>
       </c>
       <c r="B542" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="543">
@@ -6272,7 +6263,7 @@
         <v>54</v>
       </c>
       <c r="B543" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="544">
@@ -6280,7 +6271,7 @@
         <v>54</v>
       </c>
       <c r="B544" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="545">
@@ -6288,7 +6279,7 @@
         <v>55</v>
       </c>
       <c r="B545" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="546">
@@ -6296,7 +6287,7 @@
         <v>55</v>
       </c>
       <c r="B546" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="547">
@@ -6304,7 +6295,7 @@
         <v>55</v>
       </c>
       <c r="B547" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="548">
@@ -6312,7 +6303,7 @@
         <v>55</v>
       </c>
       <c r="B548" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="549">
@@ -6320,7 +6311,7 @@
         <v>55</v>
       </c>
       <c r="B549" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="550">
@@ -6328,7 +6319,7 @@
         <v>55</v>
       </c>
       <c r="B550" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="551">
@@ -6336,7 +6327,7 @@
         <v>55</v>
       </c>
       <c r="B551" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="552">
@@ -6344,7 +6335,7 @@
         <v>55</v>
       </c>
       <c r="B552" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="553">
@@ -6352,7 +6343,7 @@
         <v>55</v>
       </c>
       <c r="B553" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="554">
@@ -6360,7 +6351,7 @@
         <v>56</v>
       </c>
       <c r="B554" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="555">
@@ -6368,7 +6359,7 @@
         <v>56</v>
       </c>
       <c r="B555" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="556">
@@ -6376,7 +6367,7 @@
         <v>57</v>
       </c>
       <c r="B556" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="557">
@@ -6384,7 +6375,7 @@
         <v>57</v>
       </c>
       <c r="B557" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="558">
@@ -6392,7 +6383,7 @@
         <v>58</v>
       </c>
       <c r="B558" t="s">
-        <v>295</v>
+        <v>547</v>
       </c>
     </row>
     <row r="559">
@@ -6400,7 +6391,7 @@
         <v>59</v>
       </c>
       <c r="B559" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="560">
@@ -6408,7 +6399,7 @@
         <v>59</v>
       </c>
       <c r="B560" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="561">
@@ -6416,7 +6407,7 @@
         <v>59</v>
       </c>
       <c r="B561" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="562">
@@ -6424,7 +6415,7 @@
         <v>59</v>
       </c>
       <c r="B562" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="563">
@@ -6432,7 +6423,7 @@
         <v>60</v>
       </c>
       <c r="B563" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="564">
@@ -6440,7 +6431,7 @@
         <v>60</v>
       </c>
       <c r="B564" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="565">
@@ -6448,7 +6439,7 @@
         <v>61</v>
       </c>
       <c r="B565" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="566">
@@ -6456,7 +6447,7 @@
         <v>61</v>
       </c>
       <c r="B566" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="567">
@@ -6464,7 +6455,7 @@
         <v>61</v>
       </c>
       <c r="B567" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="568">
@@ -6472,7 +6463,7 @@
         <v>61</v>
       </c>
       <c r="B568" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="569">
@@ -6480,7 +6471,7 @@
         <v>61</v>
       </c>
       <c r="B569" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="570">
@@ -6488,7 +6479,7 @@
         <v>62</v>
       </c>
       <c r="B570" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="571">
@@ -6496,7 +6487,7 @@
         <v>62</v>
       </c>
       <c r="B571" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="572">
@@ -6504,7 +6495,7 @@
         <v>63</v>
       </c>
       <c r="B572" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="573">
@@ -6512,7 +6503,7 @@
         <v>63</v>
       </c>
       <c r="B573" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="574">
@@ -6520,7 +6511,7 @@
         <v>63</v>
       </c>
       <c r="B574" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="575">
@@ -6528,7 +6519,7 @@
         <v>64</v>
       </c>
       <c r="B575" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="576">
@@ -6536,7 +6527,7 @@
         <v>64</v>
       </c>
       <c r="B576" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="577">
@@ -6544,7 +6535,7 @@
         <v>65</v>
       </c>
       <c r="B577" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="578">
@@ -6552,7 +6543,7 @@
         <v>66</v>
       </c>
       <c r="B578" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="579">
@@ -6560,7 +6551,7 @@
         <v>66</v>
       </c>
       <c r="B579" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="580">
@@ -6568,7 +6559,7 @@
         <v>67</v>
       </c>
       <c r="B580" t="s">
-        <v>482</v>
+        <v>567</v>
       </c>
     </row>
     <row r="581">
@@ -6576,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B581" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="582">
@@ -6584,7 +6575,7 @@
         <v>67</v>
       </c>
       <c r="B582" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="583">
@@ -6592,7 +6583,7 @@
         <v>67</v>
       </c>
       <c r="B583" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="584">
@@ -6600,7 +6591,7 @@
         <v>67</v>
       </c>
       <c r="B584" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="585">
@@ -6608,7 +6599,7 @@
         <v>67</v>
       </c>
       <c r="B585" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="586">
@@ -6640,7 +6631,7 @@
         <v>68</v>
       </c>
       <c r="B589" t="s">
-        <v>307</v>
+        <v>573</v>
       </c>
     </row>
     <row r="590">
@@ -6648,7 +6639,7 @@
         <v>68</v>
       </c>
       <c r="B590" t="s">
-        <v>308</v>
+        <v>112</v>
       </c>
     </row>
     <row r="591">
@@ -6656,7 +6647,7 @@
         <v>68</v>
       </c>
       <c r="B591" t="s">
-        <v>576</v>
+        <v>283</v>
       </c>
     </row>
     <row r="592">
@@ -6664,7 +6655,7 @@
         <v>69</v>
       </c>
       <c r="B592" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="593">
@@ -6672,7 +6663,7 @@
         <v>69</v>
       </c>
       <c r="B593" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="594">
@@ -6680,7 +6671,7 @@
         <v>69</v>
       </c>
       <c r="B594" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="595">
@@ -6688,7 +6679,7 @@
         <v>69</v>
       </c>
       <c r="B595" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="596">
@@ -6696,7 +6687,7 @@
         <v>69</v>
       </c>
       <c r="B596" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="597">
@@ -6704,7 +6695,7 @@
         <v>69</v>
       </c>
       <c r="B597" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="598">
@@ -6712,7 +6703,7 @@
         <v>70</v>
       </c>
       <c r="B598" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="599">
@@ -6720,7 +6711,7 @@
         <v>70</v>
       </c>
       <c r="B599" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="600">
@@ -6728,7 +6719,7 @@
         <v>71</v>
       </c>
       <c r="B600" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="601">
@@ -6736,7 +6727,7 @@
         <v>71</v>
       </c>
       <c r="B601" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="602">
@@ -6744,7 +6735,7 @@
         <v>71</v>
       </c>
       <c r="B602" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="603">
@@ -6752,7 +6743,7 @@
         <v>71</v>
       </c>
       <c r="B603" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="604">
@@ -6760,7 +6751,7 @@
         <v>71</v>
       </c>
       <c r="B604" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="605">
@@ -6768,7 +6759,7 @@
         <v>72</v>
       </c>
       <c r="B605" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="606">
@@ -6776,7 +6767,7 @@
         <v>72</v>
       </c>
       <c r="B606" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="607">
@@ -6784,7 +6775,7 @@
         <v>72</v>
       </c>
       <c r="B607" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="608">
@@ -6792,7 +6783,7 @@
         <v>72</v>
       </c>
       <c r="B608" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="609">
@@ -6800,7 +6791,7 @@
         <v>72</v>
       </c>
       <c r="B609" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="610">
@@ -6808,7 +6799,7 @@
         <v>72</v>
       </c>
       <c r="B610" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="611">
@@ -6816,7 +6807,7 @@
         <v>72</v>
       </c>
       <c r="B611" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="612">
@@ -6824,7 +6815,7 @@
         <v>73</v>
       </c>
       <c r="B612" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="613">
@@ -6832,7 +6823,7 @@
         <v>73</v>
       </c>
       <c r="B613" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="614">
@@ -6840,7 +6831,7 @@
         <v>73</v>
       </c>
       <c r="B614" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="615">
@@ -6848,7 +6839,7 @@
         <v>73</v>
       </c>
       <c r="B615" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="616">
@@ -6856,7 +6847,7 @@
         <v>73</v>
       </c>
       <c r="B616" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="617">
@@ -6864,7 +6855,7 @@
         <v>73</v>
       </c>
       <c r="B617" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="618">
@@ -6872,7 +6863,7 @@
         <v>73</v>
       </c>
       <c r="B618" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="619">
@@ -6880,7 +6871,7 @@
         <v>73</v>
       </c>
       <c r="B619" t="s">
-        <v>603</v>
+        <v>73</v>
       </c>
     </row>
     <row r="620">
@@ -6888,7 +6879,7 @@
         <v>74</v>
       </c>
       <c r="B620" t="s">
-        <v>341</v>
+        <v>600</v>
       </c>
     </row>
     <row r="621">
@@ -6896,7 +6887,7 @@
         <v>74</v>
       </c>
       <c r="B621" t="s">
-        <v>342</v>
+        <v>601</v>
       </c>
     </row>
     <row r="622">
@@ -6904,7 +6895,7 @@
         <v>74</v>
       </c>
       <c r="B622" t="s">
-        <v>343</v>
+        <v>602</v>
       </c>
     </row>
     <row r="623">
@@ -6912,7 +6903,7 @@
         <v>75</v>
       </c>
       <c r="B623" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="624">
@@ -6920,7 +6911,7 @@
         <v>75</v>
       </c>
       <c r="B624" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="625">
@@ -6928,7 +6919,7 @@
         <v>75</v>
       </c>
       <c r="B625" t="s">
-        <v>604</v>
+        <v>75</v>
       </c>
     </row>
     <row r="626">
@@ -6944,7 +6935,7 @@
         <v>76</v>
       </c>
       <c r="B627" t="s">
-        <v>606</v>
+        <v>76</v>
       </c>
     </row>
     <row r="628">
@@ -6952,7 +6943,7 @@
         <v>76</v>
       </c>
       <c r="B628" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="629">
@@ -6960,7 +6951,7 @@
         <v>76</v>
       </c>
       <c r="B629" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="630">
@@ -6968,7 +6959,7 @@
         <v>76</v>
       </c>
       <c r="B630" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="631">
@@ -6976,7 +6967,7 @@
         <v>77</v>
       </c>
       <c r="B631" t="s">
-        <v>610</v>
+        <v>77</v>
       </c>
     </row>
     <row r="632">
@@ -6984,7 +6975,7 @@
         <v>77</v>
       </c>
       <c r="B632" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="633">
@@ -6992,7 +6983,7 @@
         <v>77</v>
       </c>
       <c r="B633" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="634">
@@ -7000,7 +6991,7 @@
         <v>78</v>
       </c>
       <c r="B634" t="s">
-        <v>613</v>
+        <v>78</v>
       </c>
     </row>
     <row r="635">
@@ -7008,7 +6999,7 @@
         <v>78</v>
       </c>
       <c r="B635" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="636">
@@ -7016,7 +7007,7 @@
         <v>78</v>
       </c>
       <c r="B636" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="637">
@@ -7024,7 +7015,7 @@
         <v>79</v>
       </c>
       <c r="B637" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="638">
@@ -7032,7 +7023,7 @@
         <v>79</v>
       </c>
       <c r="B638" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="639">
@@ -7040,7 +7031,7 @@
         <v>79</v>
       </c>
       <c r="B639" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="640">
@@ -7048,7 +7039,7 @@
         <v>79</v>
       </c>
       <c r="B640" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="641">
@@ -7056,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="B641" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="642">
@@ -7064,7 +7055,7 @@
         <v>81</v>
       </c>
       <c r="B642" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="643">
@@ -7072,7 +7063,7 @@
         <v>81</v>
       </c>
       <c r="B643" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
